--- a/test_result.xlsx
+++ b/test_result.xlsx
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Vo phòng thi, SV cần tuân thủ những yêu cầu nào?</t>
+          <t>Những quy định nào sinh viên cần tuân thủ khi vào phòng thi?</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -492,7 +492,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Những quy định nào sinh viên cần tuân thủ khi vào phòng thi?</t>
+          <t>Vo phòng thi, SV cần tuân thủ những yêu cầu nào?</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,18 +504,18 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Sinh viên phải có mặt đúng giờ, xuất trình giấy tờ tùy thân (CMT/CCCD/giấy phép lái xe), tuân thủ yêu cầu giám thị, chỉ mang vật dụng được phép, không mang thiết bị truyền tin,
-không dùng tài khoản người khác đăng nhập hệ thống thi, nghiêm cấm mọi hành vi gian lận trong lúc làm bài thi, Nếu hỏi giám thị điều gì phải hỏi công khai, sinh viên 
-chỉ được ra khỏi phòng thi và khu vuẹc thi khi được giám thị cho phép, sớm nhất là sau 2/3 thời gian làm bài từ trường hợp ốm đau cần cấp cứu</t>
+          <t>- Sinh viên cần ăn mặc phù hợp với môi trường giáo dục, không phản cảm hoặc gây ảnh hưởng đến người khác.
+- Cư xử có văn hóa, tôn trọng giảng viên, cán bộ nhân viên nhà trường, khách đến thăm và các sinh viên khác.
+- Không được trao đổi, tuyên truyền thông tin xấu, trái với luật pháp Việt Nam và thuần phong mỹ tục.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Đúng</t>
+          <t>Sai</t>
         </is>
       </c>
       <c r="E3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -562,7 +562,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SV cần đáp ứng mấy yêu cầu trước lúc vào phòng thi vậy?</t>
+          <t>Sinh viên cần tuân thủ yêu-cầu-nào-khi-vào-phòng-thi?</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -591,7 +591,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Các yêu cầu sinh viên phải thực hiện, khi vào phòng thi, là chi?</t>
+          <t>SV cần đáp ứng mấy yêu cầu trước lúc vào phòng thi vậy?</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -620,7 +620,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sinh viên cần tuân thủ yêu-cầu-nào-khi-vào-phòng-thi?</t>
+          <t>Các yêu cầu sinh viên phải thực hiện, khi vào phòng thi, là chi?</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -649,7 +649,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sinh viên trễ bao nhiêu phút thì không được vào thi?</t>
+          <t>Sinh viên đi trễ bn lâu thì k đc thi?</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -674,7 +674,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sinh viên đi trễ bn lâu thì k đc thi?</t>
+          <t>Đi muộn mấy phút là không được thi nữa?</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -699,7 +699,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Đi muộn mấy phút là không được thi nữa?</t>
+          <t>Sinh viên trễ bao nhiêu phút thì không được vào thi?</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sinh viên muộn &gt;15 phút thì có thi được không?</t>
+          <t>SV đến trễ quá mấy phút là rớt quyền thi?</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -760,9 +760,8 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Sinh viên phải có mặt đúng giờ, xuất trình giấy tờ tùy thân (CMT/CCCD/giấy phép lái xe), tuân thủ yêu cầu giám thị, chỉ mang vật dụng được phép, không mang thiết bị truyền tin,
-không dùng tài khoản người khác đăng nhập hệ thống thi, nghiêm cấm mọi hành vi gian lận trong lúc làm bài thi, Nếu hỏi giám thị điều gì phải hỏi công khai, sinh viên 
-chỉ được ra khỏi phòng thi và khu vuẹc thi khi được giám thị cho phép, sớm nhất là sau 2/3 thời gian làm bài từ trường hợp ốm đau cần cấp cứu</t>
+          <t>Nhìn bài bạn, trao đổi, gian lận, mang thiết bị truyền tin, sử dụng phần mềm ngoài phần mềm thi, sao chép đề, mang đề ra ngoài, mang vũ khí, chất cấm, 
+kết nối mạng trái phép, nhận bài từ ngoài, sử dụng AI không khai báo.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -777,7 +776,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SV đến trễ quá mấy phút là rớt quyền thi?</t>
+          <t>Sinh viên muộn &gt;15 phút thì có thi được không?</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -802,46 +801,44 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>Ai vi phạm kỳ thi thì có thể bị xử lý như thế nào?</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Sinh viên sẽ bị cảnh cáo, đình chỉ thi, đình chỉ học tập 1 học kỳ, buộc thôi học, hoặc giao cơ quan công an xử lý nếu vi phạm pháp luật.</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Tùy vào tính chất và mức độ vi phạm, Trường, Ban Đào tạo sẽ áp dụng hình thức xử lý phù hợp trong các hình thức kỷ luật bao gồm: cảnh cáo, đình chỉ thi, 
+đình chỉ học tập, buộc thôi học.</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Sai</t>
+        </is>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>Những điều cấm khi thi là gì?</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>Nhìn bài bạn, trao đổi, gian lận, mang thiết bị truyền tin, sử dụng phần mềm ngoài phần mềm thi, sao chép đề, mang đề ra ngoài, 
 mang vũ khí, chất cấm, kết nối mạng trái phép, nhận bài từ ngoài, sử dụng AI không khai báo.</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Sinh viên phải có mặt đúng giờ, xuất trình giấy tờ tùy thân (CMT/CCCD/giấy phép lái xe), tuân thủ yêu cầu giám thị, chỉ mang vật dụng được phép, không mang thiết bị truyền tin,
-không dùng tài khoản người khác đăng nhập hệ thống thi, nghiêm cấm mọi hành vi gian lận trong lúc làm bài thi, Nếu hỏi giám thị điều gì phải hỏi công khai, sinh viên 
-chỉ được ra khỏi phòng thi và khu vuẹc thi khi được giám thị cho phép, sớm nhất là sau 2/3 thời gian làm bài từ trường hợp ốm đau cần cấp cứu</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Sai</t>
-        </is>
-      </c>
-      <c r="E14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Ai vi phạm kỳ thi thì có thể bị xử lý như thế nào?</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>Sinh viên sẽ bị cảnh cáo, đình chỉ thi, đình chỉ học tập 1 học kỳ, buộc thôi học, hoặc giao cơ quan công an xử lý nếu vi phạm pháp luật.</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Tùy vào tính chất và mức độ vi phạm, Trường, Ban Đào tạo sẽ áp dụng hình thức xử lý phù hợp trong các hình thức kỷ luật bao gồm: cảnh cáo, đình chỉ thi, 
-đình chỉ học tập, buộc thôi học.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -881,7 +878,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Trao đổi, nhìn bài trong giờ thi có bị phạt không?</t>
+          <t>SV mà trao đổi bài là đi luôn đúng không?</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -891,22 +888,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Lần đầu sinh viên bị cảnh cáo do Ban Đào tạo xử lý; lần thứ hai bị đình chỉ thi do Ban Đào tạo xử lý.</t>
+          <t>Lần đầu sinh viên bị đình chỉ thi do Ban Đào tạo xử lý</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Đúng</t>
+          <t>Sai</t>
         </is>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SV mà trao đổi bài là đi luôn đúng không?</t>
+          <t>Trao đổi, nhìn bài trong giờ thi có bị phạt không?</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -941,41 +938,42 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Lần đầu sinh viên bị cảnh cáo do Ban Đào tạo xử lý; lần thứ hai bị đình chỉ thi do Ban Đào tạo xử lý.</t>
+          <t>Sinh viên sẽ bị cảnh cáo, đình chỉ thi, đình chỉ học tập 1 học kỳ, buộc thôi học, hoặc giao cơ quan công an xử lý nếu vi phạm pháp luật.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Đúng</t>
+          <t>Sai</t>
         </is>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SV bị sao nếu nói chuyện khi làm bài thi giấy mà không liên quan nội dung?</t>
+          <t>Bao nhiêu tiền cho 1 TC?</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Lần đầu sinh viên bị cảnh cáo do Ban Đào tạo xử lý; lần thứ hai bị đình chỉ thi do Ban Đào tạo xử lý.</t>
+          <t>Học phí 1 tín chỉ: FPTU Hà Nội, TP. Hồ Chí Minh: 1.840.000 VNĐ/tín chỉ; FPTU Đà Nẵng, Bình Định, Cần Thơ: 1.290.000 VNĐ/tín chỉ.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Lần đầu sinh viên bị cảnh cáo do Ban Đào tạo xử lý; lần thứ hai bị đình chỉ thi do Ban Đào tạo xử lý.</t>
+          <t>Theo quy định tài chính và biểu học phí các môn học lại. Nếu sinh viên đăng ký học lại ngay trong Block 5 của học kỳ hoặc trong kỳ tiếp theo thì sẽ được áp dụng mức học phí học lại sớm bằng 50% biểu phí môn. Nếu đăng ký học lại sau thời điểm này, sinh viên sẽ phải nộp 100% biểu phí môn.
+Sinh viên vi phạm quy chế thi khi đăng ký học lại sẽ áp dụng mức học phí bằng 2 lần học phí học lại so với sinh viên không vi phạm quy chế.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Đúng</t>
+          <t>Sai</t>
         </is>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1006,96 +1004,95 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Bao nhiêu tiền cho 1 TC?</t>
+          <t>SV bị sao nếu nói chuyện khi làm bài thi giấy mà không liên quan nội dung?</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>Lần đầu sinh viên bị cảnh cáo do Ban Đào tạo xử lý; lần thứ hai bị đình chỉ thi do Ban Đào tạo xử lý.</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Lần đầu sinh viên bị cảnh cáo do Ban Đào tạo xử lý; lần thứ hai bị đình chỉ thi do Ban Đào tạo xử lý.</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Đúng</t>
+        </is>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Anh/chị cho em hỏi 1 tín chỉ mất bao nhiêu tiền ạ?</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
           <t>Học phí 1 tín chỉ: FPTU Hà Nội, TP. Hồ Chí Minh: 1.840.000 VNĐ/tín chỉ; FPTU Đà Nẵng, Bình Định, Cần Thơ: 1.290.000 VNĐ/tín chỉ.</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Học phí 1 tín chỉ: FPTU Hà Nội, TP. Hồ Chí Minh: 1.840.000 VNĐ/tín chỉ; FPTU Đà Nẵng, Bình Định, Cần Thơ: 1.290.000 VNĐ/tín chỉ.</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Đúng</t>
+        </is>
+      </c>
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Ở FPTU, 1 tín chỉ học phí bao nhiêu?</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Học phí 1 tín chỉ: FPTU Hà Nội, TP. Hồ Chí Minh: 1.840.000 VNĐ/tín chỉ; FPTU Đà Nẵng, Bình Định, Cần Thơ: 1.290.000 VNĐ/tín chỉ.</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Học phí 1 tín chỉ: FPTU Hà Nội, TP. Hồ Chí Minh: 1.840.000 VNĐ/tín chỉ; FPTU Đà Nẵng, Bình Định, Cần Thơ: 1.290.000 VNĐ/tín chỉ.</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Đúng</t>
+        </is>
+      </c>
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Bao tiền cho 1 TC z mày</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Học phí 1 tín chỉ: FPTU Hà Nội, TP. Hồ Chí Minh: 1.840.000 VNĐ/tín chỉ; FPTU Đà Nẵng, Bình Định, Cần Thơ: 1.290.000 VNĐ/tín chỉ.</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
         <is>
           <t>Học phí kỳ định hướng: Hà Nội/HCM 13,100,000 đồng; Đà Nẵng/Cần Thơ 9,170,000 đồng; Bình Định 6,550,000 đồng. Học phí tiếng Anh chuẩn bị: 
 Hà Nội/HCM 13,100,000 đồng;  Đà Nẵng/Cần Thơ 9,170,000 đồng; Bình Định 6,550,000 đồng.</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Sai</t>
-        </is>
-      </c>
-      <c r="E22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Anh/chị cho em hỏi 1 tín chỉ mất bao nhiêu tiền ạ?</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Học phí 1 tín chỉ: FPTU Hà Nội, TP. Hồ Chí Minh: 1.840.000 VNĐ/tín chỉ; FPTU Đà Nẵng, Bình Định, Cần Thơ: 1.290.000 VNĐ/tín chỉ.</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Học phí ngành Ngôn ngữ Anh tại cơ sở Hà Nội như sau: Kỳ 1–3: 22,120,000 đồng/kỳ, Kỳ 4–6: 23,520,000 đồng/kỳ, Kỳ 7–9: 25,060,000 đồng/kỳ</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Sai</t>
-        </is>
-      </c>
-      <c r="E23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Bao tiền cho 1 TC z mày</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Học phí 1 tín chỉ: FPTU Hà Nội, TP. Hồ Chí Minh: 1.840.000 VNĐ/tín chỉ; FPTU Đà Nẵng, Bình Định, Cần Thơ: 1.290.000 VNĐ/tín chỉ.</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Học phí kỳ định hướng: Hà Nội/HCM 13,100,000 đồng; Đà Nẵng/Cần Thơ 9,170,000 đồng; Bình Định 6,550,000 đồng. Học phí tiếng Anh chuẩn bị: 
-Hà Nội/HCM 13,100,000 đồng;  Đà Nẵng/Cần Thơ 9,170,000 đồng; Bình Định 6,550,000 đồng.</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Sai</t>
-        </is>
-      </c>
-      <c r="E24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Ở FPTU, 1 tín chỉ học phí bao nhiêu?</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Học phí 1 tín chỉ: FPTU Hà Nội, TP. Hồ Chí Minh: 1.840.000 VNĐ/tín chỉ; FPTU Đà Nẵng, Bình Định, Cần Thơ: 1.290.000 VNĐ/tín chỉ.</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Sinh viên sẽ phải nộp thêm học phí tín chỉ thừa.</t>
-        </is>
-      </c>
       <c r="D25" t="inlineStr">
         <is>
           <t>Sai</t>
@@ -1118,22 +1115,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Không, sinh viên sẽ nộp cùng kỳ học chính thức chứa môn đó.</t>
+          <t>Học phí 1 tín chỉ: FPTU Hà Nội, TP. Hồ Chí Minh: 1.840.000 VNĐ/tín chỉ; FPTU Đà Nẵng, Bình Định, Cần Thơ: 1.290.000 VNĐ/tín chỉ.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Sai</t>
+          <t>Đúng</t>
         </is>
       </c>
       <c r="E26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Một tín chỉ tính bao nhiêu vậy ta?</t>
+          <t>1 tín chỉ 950k hả bạn?</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1143,22 +1140,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Nếu tổng số tín chỉ học lại của em vượt quá 5% tổng số tín chỉ toàn chương trình, thì hạng tốt nghiệp sẽ bị giảm một mức. Quy định này áp dụng cho sinh viên từ khóa 17 trở đi.</t>
+          <t>Học phí 1 tín chỉ: FPTU Hà Nội, TP. Hồ Chí Minh: 1.840.000 VNĐ/tín chỉ; FPTU Đà Nẵng, Bình Định, Cần Thơ: 1.290.000 VNĐ/tín chỉ.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Sai</t>
+          <t>Đúng</t>
         </is>
       </c>
       <c r="E27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1 tín chỉ 950k hả bạn?</t>
+          <t>Một tín chỉ tính bao nhiêu vậy ta?</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1168,16 +1165,16 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Sinh viên sẽ phải nộp thêm học phí tín chỉ thừa.</t>
+          <t>Học phí 1 tín chỉ: FPTU Hà Nội, TP. Hồ Chí Minh: 1.840.000 VNĐ/tín chỉ; FPTU Đà Nẵng, Bình Định, Cần Thơ: 1.290.000 VNĐ/tín chỉ.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Sai</t>
+          <t>Đúng</t>
         </is>
       </c>
       <c r="E28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1193,16 +1190,16 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Sinh viên sẽ phải nộp thêm học phí tín chỉ thừa.</t>
+          <t>Học phí 1 tín chỉ: FPTU Hà Nội, TP. Hồ Chí Minh: 1.840.000 VNĐ/tín chỉ; FPTU Đà Nẵng, Bình Định, Cần Thơ: 1.290.000 VNĐ/tín chỉ.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Sai</t>
+          <t>Đúng</t>
         </is>
       </c>
       <c r="E29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1218,16 +1215,16 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Sinh viên sẽ phải nộp thêm học phí tín chỉ thừa.</t>
+          <t>Học phí 1 tín chỉ: FPTU Hà Nội, TP. Hồ Chí Minh: 1.840.000 VNĐ/tín chỉ; FPTU Đà Nẵng, Bình Định, Cần Thơ: 1.290.000 VNĐ/tín chỉ.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Sai</t>
+          <t>Đúng</t>
         </is>
       </c>
       <c r="E30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1243,16 +1240,16 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Sinh viên sẽ phải nộp thêm học phí tín chỉ thừa.</t>
+          <t>Học phí 1 tín chỉ: FPTU Hà Nội, TP. Hồ Chí Minh: 1.840.000 VNĐ/tín chỉ; FPTU Đà Nẵng, Bình Định, Cần Thơ: 1.290.000 VNĐ/tín chỉ.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Sai</t>
+          <t>Đúng</t>
         </is>
       </c>
       <c r="E31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1293,7 +1290,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>“Block 1-4” dùng để chỉ khoảng thời gian học đi thực tế trong học kỳ chuyên ngành của sinh viên, Block 1-4 thường kéo dài trong khoảng 3 tháng gồm vừa học và thi. Sau khi Block 1-4 kết thúc thì Nhà trường sẽ triển khai các lớp học lại trong Block 5 là tháng cuối cùng của học kỳ.</t>
+          <t>Vui lòng tham khảo và làm theo hướng dẫn trong video: https://www.youtube.com/watch?v=t5zvj5xhWbs&amp;t=8s</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1318,17 +1315,16 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Nhà trường đã sắp xếp các học phần trong Chương trình theo trình tự nhất định, đây là trình tự mà Nhà Trường khuyến cáo sinh viên nên tuân theo để thuận lợi nhất cho việc tiếp thu kiến thức. Do đó, vào mỗi học kỳ Nhà trường sẽ xếp lớp sẵn cho sinh viên, sinh viên nếu có nguyện vọng điều chỉnh có thể làm đơn đề xuất để Nhà trường xem xét.
-Tài liệu tham khảo: https://drive.google.com/file/d/15eqz7PEcShvSdcQhqlcEhOzl3HpDJ07E/view , trang 1</t>
+          <t>Có thể, MCO201c tương đương với MCO201m trong ngành BBA_MC.</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Sai</t>
+          <t>Đúng</t>
         </is>
       </c>
       <c r="E34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1394,8 +1390,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Thu hộ và phụ thu tự nguyện phải tuân nguyên tắc: ủy quyền tối đa cho sinh viên tự quản lý thu chi nếu sinh viên có thể tự quản lý; nếu đơn vị phải đứng ra làm đầu 
-mối thì phải được giám đốc khối phê duyệt và ban hành quyết định trước khi thực hiện.</t>
+          <t>Không em nhé. Sinh viên chỉ được thi cuối kỳ nếu đáp ứng đầy đủ điều kiện trong đề cương học phần và yêu cầu đặc thù của bộ môn.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1436,7 +1431,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Gửi giúp em thông tin điều kiện OJT với</t>
+          <t>dk di ojt la gi???</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1446,7 +1441,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Em theo dõi thông báo trên app myFPT và email sinh viên nhé.</t>
+          <t>Sinh viên có thể đi OJT từ trước khi kỳ OJT bắt đầu nhưng sẽ chỉ được ghi nhận và lấy đánh giá từ ngày đầu tiên của học kỳ OJT.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1461,7 +1456,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>dk di ojt la gi???</t>
+          <t>Gửi giúp em thông tin điều kiện OJT với</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1471,9 +1466,11 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Tự nhận thức được bản thân giúp bạn nhận diện được bản sắc cá nhân mang tính độc đáo, duy nhất của mình, từ đó biết nên phát huy các góc cạnh nào và những điểm gì cần cải thiện.
-Thông qua trả lời các câu hỏi: Tôi là ai? Điểm mạnh, điểm yếu và các giá trị cốt lõi của tôi là gì? Hay nhìn lại các dấu ấn mình đã trải qua theo dòng thời gian cuộc đời, giúp bạn có thêm cơ hội trải nghiệm lại bản thân một cách sâu sắc, trước khi xác định các mục tiêu tương lai mà bạn muốn theo đuổi.
-Ví dụ, nếu bạn đeo đuổi giá trị Đơn giản, bạn sẽ biết mình cần “Để tâm vào thực chất của vấn đề và tránh những sự rườm rà phức tạp hóa không cần thiết. Yêu sự chân thực, thích đặt cho mình những mục tiêu rõ ràng và sống một cuộc đời đơn giản”.</t>
+          <t>Để đạt học phần OJT sinh viên cần đạt các điều kiện sau:
+- Thời gian tham gia OJT: Tối thiểu 14 tuần
+- Điểm đánh giá &gt;= 5 (Không có đầu điểm &lt;4)
+- Tỉ trọng các đầu điểm: Thái độ: 30%; Kỹ năng mềm: 30%; Kiến thức, kỹ năng chuyên môn: 40%.
+- Điểm của học phần OJT không tính vào điểm GPA.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1498,8 +1495,9 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Sinh viên không đủ điều kiện đi OJT/ on job training/ thực tập sẽ được đưa vào diện tạm ngưng bắt buộc để học lại và không cần làm thủ tục tạm hoãn tiến độ một học kỳ để học lại. Sinh viên sẽ không phải nộp học phí của kỳ tiếp theo mà sẽ chỉ cần đăng ký học lại hoặc học chậm kỳ (nếu có).
-Trường hợp sinh viên thuộc diện tạm ngưng bắt buộc nhưng không đăng ký học lại sẽ bị đưa vào danh sách thôi học tự nguyện.</t>
+          <t>- Hoàn thành tối thiểu 90% tổng số tín chỉ của các học phần chuyên môn (không bao gồm Giáo giục quốc phòng, Giáo dục thể chất) được nhà trường quy định trong giai đoạn trước OJT/ on job training/ thực tập của chương trình giáo dục đại học theo ngành được đào tạo, tương đương với không nợ quá 2 môn (mỗi môn 3 tín chỉ).
+- Riêng với sinh viên chuyên ngành hẹp JS cần phải pass JPD133
+Tài liệu tham khảo: https://drive.google.com/file/d/15eqz7PEcShvSdcQhqlcEhOzl3HpDJ07E/view , trang 4</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1514,17 +1512,18 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Muốn di thuc tap thì phai dap ung dieu kien gi?</t>
+          <t>E tính học D.Marketing ở FPT SG, học phí tnao vậy mn?</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Sinh viên phải hoàn thành ít nhất 90% tín chỉ chuyên môn trước OJT/ on job training / thực tập.</t>
+          <t>Học phí ngành Digital Marketing tại cơ sở TP. Hồ Chí Minh như sau: Kỳ 1–3: 31,600,000 đồng/kỳ, Kỳ 4–6: 33,600,000 đồng/kỳ,
+ Kỳ 7–9: 35,800,000 đồng/kỳ</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>em cần xin phép bộ phận quản lý ký túc xá không được tự ý đổi.</t>
+          <t>Học phí ngành Digital Marketing tại cơ sở Hà Nội: Kỳ 1–3: 31,600,000 đồng/kỳ, Kỳ 4–6: 33,600,000 đồng/kỳ, Kỳ 7–9: 35,800,000 đồng/kỳ; tại cơ sở TP. Hồ Chí Minh: Kỳ 1–3: 31,600,000 đồng/kỳ, Kỳ 4–6: 33,600,000 đồng/kỳ, Kỳ 7–9: 35,800,000 đồng/kỳ; tại cơ sở Đà Nẵng: Kỳ 1–3: 22,120,000 đồng/kỳ, Kỳ 4–6: 23,520,000 đồng/kỳ, Kỳ 7–9: 25,060,000 đồng/kỳ; tại cơ sở Cần Thơ: Kỳ 1–3: 22,120,000 đồng/kỳ, Kỳ 4–6: 23,520,000 đồng/kỳ, Kỳ 7–9: 25,060,000 đồng/kỳ; tại cơ sở Bình Định: Kỳ 1–3: 15,800,000 đồng/kỳ, Kỳ 4–6: 16,800,000 đồng/kỳ, Kỳ 7–9: 17,900,000 đồng/kỳ</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1539,18 +1538,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>E tính học D.Marketing ở FPT SG, học phí tnao vậy mn?</t>
+          <t>Muốn di thuc tap thì phai dap ung dieu kien gi?</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Học phí ngành Digital Marketing tại cơ sở TP. Hồ Chí Minh như sau: Kỳ 1–3: 31,600,000 đồng/kỳ, Kỳ 4–6: 33,600,000 đồng/kỳ,
- Kỳ 7–9: 35,800,000 đồng/kỳ</t>
+          <t>Sinh viên phải hoàn thành ít nhất 90% tín chỉ chuyên môn trước OJT/ on job training / thực tập.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Học phí ngành Digital Marketing tại cơ sở Hà Nội như sau: Kỳ 1–3: 31,600,000 đồng/kỳ, Kỳ 4–6: 33,600,000 đồng/kỳ, Kỳ 7–9: 35,800,000 đồng/kỳ</t>
+          <t>Em hỏi IC-PDP để được hướng dẫn chi tiết.</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1575,84 +1573,6 @@
         </is>
       </c>
       <c r="C44" t="inlineStr">
-        <is>
-          <t>Học phí ngành Trí tuệ nhân tạo tại cơ sở Hà Nội như sau: Kỳ 1–3: 31,600,000 đồng/kỳ, Kỳ 4–6: 33,600,000 đồng/kỳ, Kỳ 7–9: 35,800,000 đồng/kỳ</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Sai</t>
-        </is>
-      </c>
-      <c r="E44" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Ngành Tiếp thị Kỹ thuật số ở FPT TP.HCM học phí bao nhiêu thế?</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Học phí ngành Digital Marketing tại cơ sở TP. Hồ Chí Minh như sau: Kỳ 1–3: 31,600,000 đồng/kỳ, Kỳ 4–6: 33,600,000 đồng/kỳ,
- Kỳ 7–9: 35,800,000 đồng/kỳ</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Học phí ngành Kỹ thuật phần mềm tại cơ sở TP. Hồ Chí Minh như sau: Kỳ 1–3: 31,600,000 đồng/kỳ, Kỳ 4–6: 33,600,000 đồng/kỳ, Kỳ 7–9: 35,800,000 đồng/kỳ</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Sai</t>
-        </is>
-      </c>
-      <c r="E45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Học Digital Marketing trong đó (TP.HCM) thì học phí có mắc hông ạ?</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Học phí ngành Digital Marketing tại cơ sở TP. Hồ Chí Minh như sau: Kỳ 1–3: 31,600,000 đồng/kỳ, Kỳ 4–6: 33,600,000 đồng/kỳ,
- Kỳ 7–9: 35,800,000 đồng/kỳ</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Không, sinh viên sẽ nộp cùng kỳ học chính thức chứa môn đó.</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Sai</t>
-        </is>
-      </c>
-      <c r="E46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Đu học ngành Digi tại FPT SG thì mất nhiu xiền ạaa</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Học phí ngành Digital Marketing tại cơ sở TP. Hồ Chí Minh như sau: Kỳ 1–3: 31,600,000 đồng/kỳ, Kỳ 4–6: 33,600,000 đồng/kỳ,
- Kỳ 7–9: 35,800,000 đồng/kỳ</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
         <is>
           <t>Năm 2025, Đại học FPT chia ra làm 4 nhóm ngành học chính:
 1. Nhóm ngành công nghệ thông tin: Kỹ thuật phần mềm, Chuyển đổi số, Trí tuệ nhân tạo (AI), An toàn thông tin, 
@@ -1665,6 +1585,92 @@
 5. Nhóm ngành luật: Luật kinh tế, Luật thương mại quốc tế.</t>
         </is>
       </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Sai</t>
+        </is>
+      </c>
+      <c r="E44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Ngành Tiếp thị Kỹ thuật số ở FPT TP.HCM học phí bao nhiêu thế?</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Học phí ngành Digital Marketing tại cơ sở TP. Hồ Chí Minh như sau: Kỳ 1–3: 31,600,000 đồng/kỳ, Kỳ 4–6: 33,600,000 đồng/kỳ,
+ Kỳ 7–9: 35,800,000 đồng/kỳ</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Học phí ngành Thiết kế mỹ thuật số tại cơ sở TP. Hồ Chí Minh như sau: Kỳ 1–3: 31,600,000 đồng/kỳ, Kỳ 4–6: 33,600,000 đồng/kỳ, Kỳ 7–9: 35,800,000 đồng/kỳ</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Sai</t>
+        </is>
+      </c>
+      <c r="E45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Học Digital Marketing trong đó (TP.HCM) thì học phí có mắc hông ạ?</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Học phí ngành Digital Marketing tại cơ sở TP. Hồ Chí Minh như sau: Kỳ 1–3: 31,600,000 đồng/kỳ, Kỳ 4–6: 33,600,000 đồng/kỳ,
+ Kỳ 7–9: 35,800,000 đồng/kỳ</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Học phí ngành Digital Marketing tại cơ sở Hà Nội: Kỳ 1–3: 31,600,000 đồng/kỳ, Kỳ 4–6: 33,600,000 đồng/kỳ, Kỳ 7–9: 35,800,000 đồng/kỳ; tại cơ sở TP. Hồ Chí Minh: Kỳ 1–3: 31,600,000 đồng/kỳ, Kỳ 4–6: 33,600,000 đồng/kỳ, Kỳ 7–9: 35,800,000 đồng/kỳ; tại cơ sở Đà Nẵng: Kỳ 1–3: 22,120,000 đồng/kỳ, Kỳ 4–6: 23,520,000 đồng/kỳ, Kỳ 7–9: 25,060,000 đồng/kỳ; tại cơ sở Cần Thơ: Kỳ 1–3: 22,120,000 đồng/kỳ, Kỳ 4–6: 23,520,000 đồng/kỳ, Kỳ 7–9: 25,060,000 đồng/kỳ; tại cơ sở Bình Định: Kỳ 1–3: 15,800,000 đồng/kỳ, Kỳ 4–6: 16,800,000 đồng/kỳ, Kỳ 7–9: 17,900,000 đồng/kỳ</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Sai</t>
+        </is>
+      </c>
+      <c r="E46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Đu học ngành Digi tại FPT SG thì mất nhiu xiền ạaa</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Học phí ngành Digital Marketing tại cơ sở TP. Hồ Chí Minh như sau: Kỳ 1–3: 31,600,000 đồng/kỳ, Kỳ 4–6: 33,600,000 đồng/kỳ,
+ Kỳ 7–9: 35,800,000 đồng/kỳ</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Năm 2025, Đại học FPT chia ra làm 4 nhóm ngành học chính:
+1. Nhóm ngành công nghệ thông tin: Kỹ thuật phần mềm, Chuyển đổi số, Trí tuệ nhân tạo (AI), An toàn thông tin, 
+Thiết kế mỹ thuật số, Công nghệ ô tô số, Thiết kế vi mạch bán dẫn.
+2.Nhóm ngành quản trị kinh doanh: Digital Marketing, Kinh doanh quốc tế, Quản trị khách sạn, Quản trị dịch vụ du lịch và lữ hành, Công nghệ tài chính,
+Logistics và quản lý chuỗi cung ứng, Tài chính doanh nghiệp, Ngân hàng số- tài, Tài chính đầu tư.
+3. Nhóm ngành ngôn ngữ: Ngôn ngữ Anh, Ngôn ngữ Nhật (song ngữ Anh–Nhật), Ngôn ngữ Hàn Quốc (song ngữ Anh–Hàn), 
+Ngôn ngữ Trung Quốc (song ngữ Anh–Trung).
+4. Nhóm ngành truyền thông: Truyền thông đa phương tiện, Quan hệ công chúng.
+5. Nhóm ngành luật: Luật kinh tế, Luật thương mại quốc tế.</t>
+        </is>
+      </c>
       <c r="D47" t="inlineStr">
         <is>
           <t>Sai</t>
@@ -1688,7 +1694,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Học phí tiếng anh chuẩn bị tại TP. Hồ Chí Minh 13,100,000 đồng/1 level.</t>
+          <t>Học phí ngành Chuyển đổi số tại cơ sở TP. Hồ Chí Minh như sau: Kỳ 1–3: 31,600,000 đồng/kỳ, Kỳ 4–6: 33,600,000 đồng/kỳ, Kỳ 7–9: 35,800,000 đồng/kỳ</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1745,7 +1751,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Sinh viên có nhu cầu ở Ký túc xá trong học kỳ tiếp theo sẽ cần tiến hành đăng ký giữ chỗ theo đúng thông báo của Nhà trường.</t>
+          <t>Nếu phát hiện bạn cùng phòng có biểu hiện bất thường về sức khỏe, sinh viên cần thông báo hoặc hỗ trợ đưa người đó đến phòng y tế để được kiểm tra và điều trị.</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1773,7 +1779,8 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Sinh viên có trách nhiệm giữ gìn tài sản chung của KTX, sử dụng đúng mục đích và không tự ý di chuyển, tháo lắp hoặc làm hư hại đồ dùng trong phòng ở, hành lang và các khu vực công cộng. Nếu phát hiện thiết bị hỏng hóc, sinh viên cần báo ngay cho ban quản lý KTX để kịp thời sửa chữa.</t>
+          <t>- Sinh viên không được gây gổ, kích động đánh nhau, mang vũ khí hoặc vật dụng nguy hiểm vào KTX. Mọi hành vi làm mất an ninh trật tự hoặc gây ảnh hưởng đến người khác sẽ bị xử lý nghiêm.
+- Không leo trèo hàng rào, ban công, sân thượng</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1798,6 +1805,86 @@
         </is>
       </c>
       <c r="C52" t="inlineStr">
+        <is>
+          <t>Campus Hòa Lạc hiện có diện tích đi vào sử dụng là 14ha, với khuôn viên gồm 4 tòa nhà Giảng đường, 8 Ký túc xá, 3 sân bóng đá, 1 sân street workout, 1 sân 
+đa năng, nhà tập Vovinam, sân băng, sân bóng rổ, sân bóng chuyền,…kèm hệ thống cây xanh phủ kín khuôn viên</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Đúng</t>
+        </is>
+      </c>
+      <c r="E52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>FPTU Ha Noi chiếm nhiêu ha đất zậy mn ơi?</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Campus Hòa Lạc hiện có diện tích đi vào sử dụng là 14ha, với khuôn viên gồm 4 tòa nhà Giảng đường, 8 Ký túc xá, 3 sân bóng đá, 1 sân street workout, 1 sân 
+đa năng, nhà tập Vovinam, sân băng, sân bóng rổ, sân bóng chuyền,…kèm hệ thống cây xanh phủ kín khuôn viên</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Trong hơn 34 năm, FPT đã xây dựng nhiều phần mềm thương hiệu Việt, hiện đại hóa các ngành kinh tế trọng điểm, hỗ trợ giáo dục thế hệ trẻ theo hướng thực học – thực nghiệp, và tiên phong trong xuất khẩu phần mềm, góp phần đưa trí tuệ Việt ra thế giới.</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Sai</t>
+        </is>
+      </c>
+      <c r="E53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Nghe nói Hòa Lạc rộng lắm, cụ thể bao nhiêu m² dạ?</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Campus Hòa Lạc hiện có diện tích đi vào sử dụng là 14ha, với khuôn viên gồm 4 tòa nhà Giảng đường, 8 Ký túc xá, 3 sân bóng đá, 1 sân street workout, 1 sân 
+đa năng, nhà tập Vovinam, sân băng, sân bóng rổ, sân bóng chuyền,…kèm hệ thống cây xanh phủ kín khuôn viên</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Campus Hòa Lạc hiện có diện tích đi vào sử dụng là 14ha, với khuôn viên gồm 4 tòa nhà Giảng đường, 8 Ký túc xá, 3 sân bóng đá, 1 sân street workout, 1 sân 
+đa năng, nhà tập Vovinam, sân băng, sân bóng rổ, sân bóng chuyền,…kèm hệ thống cây xanh phủ kín khuôn viên</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Đúng</t>
+        </is>
+      </c>
+      <c r="E54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Quy mô khuôn viên FPT ở Hòa Lạc hiện nay là bao nhiêu ha quý trường?</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Campus Hòa Lạc hiện có diện tích đi vào sử dụng là 14ha, với khuôn viên gồm 4 tòa nhà Giảng đường, 8 Ký túc xá, 3 sân bóng đá, 1 sân street workout, 1 sân 
+đa năng, nhà tập Vovinam, sân băng, sân bóng rổ, sân bóng chuyền,…kèm hệ thống cây xanh phủ kín khuôn viên</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
         <is>
           <t>Học phí Đại học FPT áp dụng theo ngành học, giai đoạn học kỳ và từng cơ sở cụ thể như sau:
 Ngành Ngôn ngữ, Du lịch, Khách sạn, Luật:
@@ -1816,99 +1903,6 @@
  Kỳ 1–3: 15,800,000 đồng/kỳ Kỳ 4–6: 16,800,000 đồng/kỳ Kỳ 7–9: 17,900,000 đồng/kỳ</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Sai</t>
-        </is>
-      </c>
-      <c r="E52" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>FPTU Ha Noi chiếm nhiêu ha đất zậy mn ơi?</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Campus Hòa Lạc hiện có diện tích đi vào sử dụng là 14ha, với khuôn viên gồm 4 tòa nhà Giảng đường, 8 Ký túc xá, 3 sân bóng đá, 1 sân street workout, 1 sân 
-đa năng, nhà tập Vovinam, sân băng, sân bóng rổ, sân bóng chuyền,…kèm hệ thống cây xanh phủ kín khuôn viên</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Học phí kỳ định hướng tại TP. Hồ Chí Minh 13,100,000 đồng.</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Sai</t>
-        </is>
-      </c>
-      <c r="E53" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Nghe nói Hòa Lạc rộng lắm, cụ thể bao nhiêu m² dạ?</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Campus Hòa Lạc hiện có diện tích đi vào sử dụng là 14ha, với khuôn viên gồm 4 tòa nhà Giảng đường, 8 Ký túc xá, 3 sân bóng đá, 1 sân street workout, 1 sân 
-đa năng, nhà tập Vovinam, sân băng, sân bóng rổ, sân bóng chuyền,…kèm hệ thống cây xanh phủ kín khuôn viên</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Campus Hòa Lạc hiện có diện tích đi vào sử dụng là 14ha, với khuôn viên gồm 4 tòa nhà Giảng đường, 8 Ký túc xá, 3 sân bóng đá, 1 sân street workout, 1 sân 
-đa năng, nhà tập Vovinam, sân băng, sân bóng rổ, sân bóng chuyền,…kèm hệ thống cây xanh phủ kín khuôn viên</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Đúng</t>
-        </is>
-      </c>
-      <c r="E54" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Quy mô khuôn viên FPT ở Hòa Lạc hiện nay là bao nhiêu ha quý trường?</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Campus Hòa Lạc hiện có diện tích đi vào sử dụng là 14ha, với khuôn viên gồm 4 tòa nhà Giảng đường, 8 Ký túc xá, 3 sân bóng đá, 1 sân street workout, 1 sân 
-đa năng, nhà tập Vovinam, sân băng, sân bóng rổ, sân bóng chuyền,…kèm hệ thống cây xanh phủ kín khuôn viên</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Học phí Đại học FPT áp dụng theo ngành học, giai đoạn học kỳ và từng cơ sở cụ thể như sau:
-Ngành Ngôn ngữ, Du lịch, Khách sạn, Luật:
-- Hà Nội và TP. Hồ Chí Minh:
- Kỳ 1–3: 22,120,000 đồng/kỳ Kỳ 4–6: 23,520,000 đồng/kỳ Kỳ 7–9: 25,060,000 đồng/kỳ
-- Đà Nẵng và Cần Thơ:
- Kỳ 1–3: 15,480,000 đồng/kỳ Kỳ 4–6: 16,460,000 đồng/kỳ Kỳ 7–9: 17,540,000 đồng/kỳ
-- Bình Định:
- Kỳ 1–3: 11,060,000 đồng/kỳ Kỳ 4–6: 11,760,000 đồng/kỳ Kỳ 7–9: 12,530,000 đồng/kỳ
-Các ngành khác (Công nghệ, Kinh tế, Thiết kế,...):
-- Hà Nội và TP. Hồ Chí Minh:
- Kỳ 1–3: 31,600,000 đồng/kỳ Kỳ 4–6: 33,600,000 đồng/kỳ Kỳ 7–9: 35,800,000 đồng/kỳ
-- Đà Nẵng và Cần Thơ:
- Kỳ 1–3: 22,120,000 đồng/kỳ Kỳ 4–6: 23,520,000 đồng/kỳ Kỳ 7–9: 25,060,000 đồng/kỳ
-- Bình Định:
- Kỳ 1–3: 15,800,000 đồng/kỳ Kỳ 4–6: 16,800,000 đồng/kỳ Kỳ 7–9: 17,900,000 đồng/kỳ</t>
-        </is>
-      </c>
       <c r="D55" t="inlineStr">
         <is>
           <t>Sai</t>
@@ -1931,7 +1925,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Sách giáo trình nếu mượn làm tài liệu tham khảo sẽ có thời hạn trả giống như sách tham khảo thông thường.</t>
+          <t>Đối với giáo trình thì hạn trả là cuối mỗi kỳ theo thông báo của Thư viện.</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1981,16 +1975,16 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Em cần đến Trung tâm thông tin thư viện nhé.</t>
+          <t>Em hỏi Phòng Kế toán hoặc Dịch vụ quản lý tài chính sinh viên.</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Đúng</t>
+          <t>Sai</t>
         </is>
       </c>
       <c r="E58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2006,17 +2000,16 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Lần đầu sinh viên bị đình chỉ học tập 1 học kỳ do Hội đồng kỷ luật Trường xử lý; lần thứ hai sinh viên bị buộc thôi học hoặc nếu không phải sinh viên thì giao cơ quan 
-công an xử lý do Hội đồng kỷ luật Trường quyết định</t>
+          <t>Em cần đến Trung tâm thông tin thư viện nhé.</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Sai</t>
+          <t>Đúng</t>
         </is>
       </c>
       <c r="E59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2033,7 +2026,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Sinh viên có thể được phát, mượn hoặc mua tùy chương trình đào tạo.</t>
+          <t>sinh viên mất thẻ hoặc làm lại thẻ với phí là 100,000 đồng/lần làm lại thẻ.</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2059,7 +2052,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Sinh viên bị hủy bỏ kết quả bài thi do Ban Đào tạo xử lý.</t>
+          <t>sinh viên mất thẻ hoặc làm lại thẻ với phí là 100,000 đồng/lần làm lại thẻ.</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2117,7 +2110,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Em cần có máy tính kết nối Internet và cài phần mềm lập trình C, như DevC++ 6.3 nha.</t>
+          <t>Thời hạn bảo lưu chỉ có giá trị trong một học kỳ, hiện nay phòng Đào tạo đã đăng thông tin về Kế hoạch học tập cho học kỳ mới trên mục News - Tin tức (FAP), vì vậy em vui lòng truy cập FAP thường xuyên để nhận các thông báo về thủ tục học vụ và tài chính cho học kỳ mới và thực hiện đúng hạn nhé.</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2148,7 +2141,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Học phí của sinh viên sẽ được bảo lưu, trừ vào học phí phải nộp khi quay lại học.</t>
+          <t>Tình trạng “Bảo lưu học kỳ” hay còn gọi là “Tạm ngừng học kỳ” là tình trạng sinh viên không tham gia học bất kỳ học phần nào trong học kỳ.</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2179,7 +2172,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Học phí của sinh viên sẽ được bảo lưu, trừ vào học phí phải nộp khi quay lại học.</t>
+          <t>Tình trạng “Bảo lưu học kỳ” hay còn gọi là “Tạm ngừng học kỳ” là tình trạng sinh viên không tham gia học bất kỳ học phần nào trong học kỳ.</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2206,7 +2199,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Sinh viên sẽ bị xem như thôi học tự nguyện.</t>
+          <t>Trường có hỗ trợ, em liên hệ Phòng Quan hệ doanh nghiệp và Cựu sinh viên để tìm hiểu chương trình khởi nghiệp.</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2312,16 +2305,16 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Thi cuối kỳ chiếm 40% tổng điểm môn học.</t>
+          <t>PRF192 final 50 câu trắc nghiệm, tối thiểu 4 điểm.</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Sai</t>
+          <t>Đúng</t>
         </is>
       </c>
       <c r="E70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2388,7 +2381,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Bài thi thực hành môn DBI202 chiếm 30% tổng điểm toàn môn. Đây là một thành phần quan trọng, yêu cầu sinh viên phải đạt điểm lớn hơn 0</t>
+          <t>Môn DBI202 có bài thi thực hành (Practical Exam) nhằm đánh giá kỹ năng thực tế của sinh viên trong việc thiết kế, triển khai và thao tác với cơ sở dữ liệu sử dụng Microsoft SQL Server.</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2403,43 +2396,43 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
+          <t>Học môn LAB cần phải qua môn nào trước không?</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Môn LAB211 có yêu cầu học phần tiên quyết là PRO192.</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Không em nhé, môn này không có môn tiên quyết đâu.</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Sai</t>
+        </is>
+      </c>
+      <c r="E74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
           <t>Phần PE trong môn DBI202 có bắt buộc không?</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B75" t="inlineStr">
         <is>
           <t>Môn DBI202 có bài thi thực hành (Practical Exam) nhằm đánh giá kỹ năng thực tế của sinh viên trong việc thiết kế, triển khai và thao
  tác với cơ sở dữ liệu sử dụng Microsoft SQL Server.</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Em liên hệ ngay phòng Đào tạo để được hướng dẫn thêm nhé.</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Sai</t>
-        </is>
-      </c>
-      <c r="E74" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Học môn LAB cần phải qua môn nào trước không?</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Môn LAB211 có yêu cầu học phần tiên quyết là PRO192.</t>
-        </is>
-      </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Không, sinh viên sẽ nộp cùng kỳ học chính thức chứa môn đó.</t>
+          <t>Các chuyến field trip là một trong nội dung của các môn học, do vậy có bắt buộc.</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2464,7 +2457,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Không, sinh viên sẽ nộp cùng kỳ học chính thức chứa môn đó.</t>
+          <t>Chương trình được cấu trúc thành các học phần bắt buộc và học phần tự chọn theo hướng dẫn của Trường để đa dạng hóa hướng chuyên môn hẹp hoặc tích lũy đủ số học phần quy định cho mỗi chương trình</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2489,16 +2482,16 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Không, sinh viên sẽ nộp cùng kỳ học chính thức chứa môn đó.</t>
+          <t>Môn LAB211 có yêu cầu học phần tiên quyết là PRO192.</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Sai</t>
+          <t>Đúng</t>
         </is>
       </c>
       <c r="E77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -2567,7 +2560,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Trường sử dụng thang điểm chính thức là thang 10 để đánh giá kết quả học tập. Ngoài ra còn có thang điểm chữ và thang điểm 4 nhưng chỉ để tham khảo hoặc chuyển đổi khi cần.</t>
+          <t>Assignment môn PRN211 chiếm 10.0% tổng điểm.</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2676,7 +2669,9 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Học phí ngành Chuyển đổi số tại cơ sở Hà Nội như sau: Kỳ 1–3: 31,600,000 đồng/kỳ, Kỳ 4–6: 33,600,000 đồng/kỳ, Kỳ 7–9: 35,800,000 đồng/kỳ</t>
+          <t>Theo quy định tài chính, sinh viên đang học tập bình thường sẽ không được rút tiền trên FAP; khoản học phí và các khoản phí dịch vụ còn dư sẽ được bù trừ vào học phí kỳ sau hoặc các dịch vụ phát sinh lần sau. Các khoản dịch vụ này sẽ được quyết toán khi sinh viên tốt nghiệp, thôi học hoặc chuyển cơ sở.
+ Trong trường hợp sinh viên thôi học, tốt nghiệp hoặc chuyển cơ sở có thể làm thủ tục rút tiền theo hướng dẫn sau. Truy cập trang =&gt; Mục Send application (Gửi đơn) =&gt; Chọn: Đơn đề nghị rút tiền =&gt; Tải template và điền nội dung vào đơn theo yêu cầu =&gt; Send. Sau khi nộp đơn xong, sinh viên vui lòng đợi xem phản hồi của bộ phận xử lý tại mục View Application (Xem đơn). Thông thường đơn rút tiền được xử lý trong vòng 2 tuần.
+ Lưu ý: Hiện nay Nhà trường chỉ trả tiền thừa về tài khoản của phụ huynh, vì vậy trong mẫu Đơn rút tiền, sinh viên cần dán ảnh chụp 2 mặt CMND/CCCD của chủ tài khoản nhận tiền (bố hoặc mẹ), giấy khai sinh của sinh viên (hoặc sổ hộ khẩu gia đình có tên sinh viên và có tên chủ tài khoản nhận tiền) để chứng minh mối quan hệ.</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2703,8 +2698,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Nhà trường có hệ thống theo dõi học tập đối với các môn Coursera, do đó sau khi hoàn thành, sinh viên không cần thao tác nộp chứng chỉ.
-Trong một vài trường hợp đặc biệt, do sinh viên đăng nhập vào khóa học sai cách dẫn đến hệ thống không ghi nhận được lộ trình học tập của sinh viên. Khi đó sinh viên sẽ nhận được yêu cầu của bộ phận Khảo thí về việc gửi lại chứng chỉ các khóa học đã hoàn thành.</t>
+          <t>Hiện nay Trường Đại học FPT đang áp dụng công nhận chuyển đổi chứng chỉ HSK thay cho một số học phần môn Tiếng Trung cụ thể như bảng quy đổi sau:</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2812,7 +2806,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Sinh viên sẽ bị cảnh cáo, đình chỉ thi, đình chỉ học tập 1 học kỳ, buộc thôi học, hoặc giao cơ quan công an xử lý nếu vi phạm pháp luật.</t>
+          <t>Lần đầu sinh viên bị đình chỉ thi và đình chỉ học tập 1 học kỳ; nếu người thi hộ không phải sinh viên sẽ giao cơ quan công an xử lý; lần thứ hai sinh viên bị buộc thôi học</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2838,7 +2832,8 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Lần đầu sinh viên bị đình chỉ thi và đình chỉ học tập 1 học kỳ; nếu người thi hộ không phải sinh viên sẽ giao cơ quan công an xử lý; lần thứ hai sinh viên bị buộc thôi học</t>
+          <t>- Đối với các môn thi có Final Exam, sinh viên sẽ có 2 lần thi. Nếu không đạt trong lần thi thứ nhất, sinh viên sẽ được tự động xếp lịch thi lần 2 mà không cần phải làm đơn (Trừ trường hợp bị đình chỉ thi). Thông tin về lịch thi lần 2 được thông báo trên Cổng thông tin đào tạo FAP mục Information Access (Tra cứu thông tin) =&gt; View exam schedule (Xem lịch thi).
+- Nếu sinh viên không đạt trong lần thi thứ 2 thì sẽ cần phải đăng ký học lại, (ngoại trừ môn Coursera, sinh viên chỉ cần đăng ký thi lại thẩm định trong các học kỳ sau cho đến khi pass môn).</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2864,7 +2859,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Sinh viên bị hủy bỏ kết quả bài thi do Ban Đào tạo xử lý.</t>
+          <t>Lần đầu sinh viên bị đình chỉ thi và đình chỉ học tập 1 học kỳ; nếu người thi hộ không phải sinh viên sẽ giao cơ quan công an xử lý; lần thứ hai sinh viên bị buộc thôi học</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2926,7 +2921,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Học phí ngành Chuyển đổi số tại cơ sở Cần Thơ như sau: Kỳ 1–3: 22,120,000 đồng/kỳ, Kỳ 4–6: 23,520,000 đồng/kỳ, Kỳ 7–9: 25,060,000 đồng/kỳ</t>
+          <t>Em phải nộp tiền và đăng ký phòng trước hạn quy định.</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2988,15 +2983,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Năm 2025, Đại học FPT chia ra làm 4 nhóm ngành học chính:
-1. Nhóm ngành công nghệ thông tin: Kỹ thuật phần mềm, Chuyển đổi số, Trí tuệ nhân tạo (AI), An toàn thông tin, 
-Thiết kế mỹ thuật số, Công nghệ ô tô số, Thiết kế vi mạch bán dẫn.
-2.Nhóm ngành quản trị kinh doanh: Digital Marketing, Kinh doanh quốc tế, Quản trị khách sạn, Quản trị dịch vụ du lịch và lữ hành, Công nghệ tài chính,
-Logistics và quản lý chuỗi cung ứng, Tài chính doanh nghiệp, Ngân hàng số- tài, Tài chính đầu tư.
-3. Nhóm ngành ngôn ngữ: Ngôn ngữ Anh, Ngôn ngữ Nhật (song ngữ Anh–Nhật), Ngôn ngữ Hàn Quốc (song ngữ Anh–Hàn), 
-Ngôn ngữ Trung Quốc (song ngữ Anh–Trung).
-4. Nhóm ngành truyền thông: Truyền thông đa phương tiện, Quan hệ công chúng.
-5. Nhóm ngành luật: Luật kinh tế, Luật thương mại quốc tế.</t>
+          <t>Để biết ngành học của mình có những chuyên ngành hẹp/ combo chuyên sâu nào, sinh viên có thể xem thông tin tại trang học liệu: flm.fpt.edu.vn =&gt; View Curriculum =&gt; View Combo</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3011,7 +2998,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Cho t hỏi đêi combo chuyên sâu thì pải qua mấy step v?</t>
+          <t>Gói chuyên sâu đó đổi được không nhỉ?</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3044,7 +3031,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Gói chuyên sâu đó đổi được không nhỉ?</t>
+          <t>Cho t hỏi đêi combo chuyên sâu thì pải qua mấy step v?</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3058,26 +3045,6 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Em được học combo chuyên ngành khác trong ngành Quản trị Kinh doanh nếu em đủ điều kiện tiên quyết và không còn lớp combo chuyên ngành của em.</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>Sai</t>
-        </is>
-      </c>
-      <c r="E97" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>Tao méo biết đổi cái combo chuyên sâu kiểu gì luôn!</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
           <t>Sinh viên có thể cân nhắc làm thủ tục đổi Combo chuyên sâu nếu cảm thấy không phù hợp với Combo hiện tại, cụ thể như sau:
  Thời gian đăng ký chuyển combo chuyên sâu: Theo thông báo của phòng Quản lý Đào tạo được đăng trên FAP mục News – Tin tức trước khi học kỳ mới bắt đầu 2 tháng.
  Phí chuyển combo chuyên sâu: 2,300,000 đồng
@@ -3085,7 +3052,22 @@
  Lưu ý: Thời gian giữ chỗ cho SV thanh toán bằng QR code là 10 phút. Nếu thanh toán sau 10 phút thì đơn sẽ bị hủy và tiền SV đã nộp sẽ được cộng vào ví FAP. khi đó sinh viên sẽ phải thao tác đăng ký lại và sử dụng tiền dư trong ví FAP. Sau khi gửi đơn, sinh viên sẽ theo dõi tại mục “View application (Xem đơn)” để nhận phản hồi của bộ phận xử lý. Đối với trường hợp hệ thống có phản hồi về phí thừa môn cần nộp: Sinh viên cần hoàn thành khoản phí này tối đa trong vòng 12 ngày kể từ thời điểm làm đơn. Nếu không hoàn thành đúng hạn, đơn sẽ bị từ chối và phí chuyển ngành cũng sẽ được hoàn về ví FAP. (Phí thừa môn là học phí của các môn học sinh viên đã được học nhưng nằm ngoài khung chương trình hiện tại. Thông thường phí thừa môn có thể xuất hiện khi sinh viên làm thủ tục chuyển ngành, chuyển combo chuyên sâu. Khi đó nếu sinh viên có các học phần đã được học ở khung chương trình cũ nhưng không có trong khung chương trình mới thì sẽ phải nộp phí thừa môn này) Lưu ý: Đối với sinh viên đổi combo sau kỳ 6 chuyên ngành, tùy từng combo cụ thể mà sau khi chuyển sinh viên có thể phải đi OJT lại hoặc không. Các môn học được thay thế trong khung chương trình mới mà sinh viên chưa được học sẽ trở thành môn học chậm kỳ và sinh viên có thể chủ động đăng ký để hoàn thành các môn học này. Sinh viên combo chuyên sâu sẽ được duy trì các loại học bổng, ưu đãi tài năng.</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Đúng</t>
+        </is>
+      </c>
+      <c r="E97" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Tao méo biết đổi cái combo chuyên sâu kiểu gì luôn!</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
         <is>
           <t>Sinh viên có thể cân nhắc làm thủ tục đổi Combo chuyên sâu nếu cảm thấy không phù hợp với Combo hiện tại, cụ thể như sau:
  Thời gian đăng ký chuyển combo chuyên sâu: Theo thông báo của phòng Quản lý Đào tạo được đăng trên FAP mục News – Tin tức trước khi học kỳ mới bắt đầu 2 tháng.
@@ -3094,22 +3076,7 @@
  Lưu ý: Thời gian giữ chỗ cho SV thanh toán bằng QR code là 10 phút. Nếu thanh toán sau 10 phút thì đơn sẽ bị hủy và tiền SV đã nộp sẽ được cộng vào ví FAP. khi đó sinh viên sẽ phải thao tác đăng ký lại và sử dụng tiền dư trong ví FAP. Sau khi gửi đơn, sinh viên sẽ theo dõi tại mục “View application (Xem đơn)” để nhận phản hồi của bộ phận xử lý. Đối với trường hợp hệ thống có phản hồi về phí thừa môn cần nộp: Sinh viên cần hoàn thành khoản phí này tối đa trong vòng 12 ngày kể từ thời điểm làm đơn. Nếu không hoàn thành đúng hạn, đơn sẽ bị từ chối và phí chuyển ngành cũng sẽ được hoàn về ví FAP. (Phí thừa môn là học phí của các môn học sinh viên đã được học nhưng nằm ngoài khung chương trình hiện tại. Thông thường phí thừa môn có thể xuất hiện khi sinh viên làm thủ tục chuyển ngành, chuyển combo chuyên sâu. Khi đó nếu sinh viên có các học phần đã được học ở khung chương trình cũ nhưng không có trong khung chương trình mới thì sẽ phải nộp phí thừa môn này) Lưu ý: Đối với sinh viên đổi combo sau kỳ 6 chuyên ngành, tùy từng combo cụ thể mà sau khi chuyển sinh viên có thể phải đi OJT lại hoặc không. Các môn học được thay thế trong khung chương trình mới mà sinh viên chưa được học sẽ trở thành môn học chậm kỳ và sinh viên có thể chủ động đăng ký để hoàn thành các môn học này. Sinh viên combo chuyên sâu sẽ được duy trì các loại học bổng, ưu đãi tài năng.</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>Đúng</t>
-        </is>
-      </c>
-      <c r="E98" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>Ck c0mb0 chii3n s4u pải lm s?</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
+      <c r="C98" t="inlineStr">
         <is>
           <t>Sinh viên có thể cân nhắc làm thủ tục đổi Combo chuyên sâu nếu cảm thấy không phù hợp với Combo hiện tại, cụ thể như sau:
  Thời gian đăng ký chuyển combo chuyên sâu: Theo thông báo của phòng Quản lý Đào tạo được đăng trên FAP mục News – Tin tức trước khi học kỳ mới bắt đầu 2 tháng.
@@ -3118,42 +3085,58 @@
  Lưu ý: Thời gian giữ chỗ cho SV thanh toán bằng QR code là 10 phút. Nếu thanh toán sau 10 phút thì đơn sẽ bị hủy và tiền SV đã nộp sẽ được cộng vào ví FAP. khi đó sinh viên sẽ phải thao tác đăng ký lại và sử dụng tiền dư trong ví FAP. Sau khi gửi đơn, sinh viên sẽ theo dõi tại mục “View application (Xem đơn)” để nhận phản hồi của bộ phận xử lý. Đối với trường hợp hệ thống có phản hồi về phí thừa môn cần nộp: Sinh viên cần hoàn thành khoản phí này tối đa trong vòng 12 ngày kể từ thời điểm làm đơn. Nếu không hoàn thành đúng hạn, đơn sẽ bị từ chối và phí chuyển ngành cũng sẽ được hoàn về ví FAP. (Phí thừa môn là học phí của các môn học sinh viên đã được học nhưng nằm ngoài khung chương trình hiện tại. Thông thường phí thừa môn có thể xuất hiện khi sinh viên làm thủ tục chuyển ngành, chuyển combo chuyên sâu. Khi đó nếu sinh viên có các học phần đã được học ở khung chương trình cũ nhưng không có trong khung chương trình mới thì sẽ phải nộp phí thừa môn này) Lưu ý: Đối với sinh viên đổi combo sau kỳ 6 chuyên ngành, tùy từng combo cụ thể mà sau khi chuyển sinh viên có thể phải đi OJT lại hoặc không. Các môn học được thay thế trong khung chương trình mới mà sinh viên chưa được học sẽ trở thành môn học chậm kỳ và sinh viên có thể chủ động đăng ký để hoàn thành các môn học này. Sinh viên combo chuyên sâu sẽ được duy trì các loại học bổng, ưu đãi tài năng.</t>
         </is>
       </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Đúng</t>
+        </is>
+      </c>
+      <c r="E98" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Học MAD101 là học cái chi rứa?</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>MAD101 là môn Toán rời rạc, cung cấp kiến thức nền tảng về logic, tập hợp, thuật toán, đồ thị, cây và đếm trong tin học.</t>
+        </is>
+      </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Xin lỗi, tôi không tìm thấy thông tin phù hợp với câu hỏi của bạn. Bạn có thể hỏi câu hỏi khác không?</t>
+          <t>MAD101 là môn Toán rời rạc, cung cấp kiến thức nền tảng về logic, tập hợp, thuật toán, đồ thị, cây và đếm trong tin học.</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Sai</t>
+          <t>Đúng</t>
         </is>
       </c>
       <c r="E99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Học MAD101 là học cái chi rứa?</t>
+          <t>Ck c0mb0 chii3n s4u pải lm s?</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>MAD101 là môn Toán rời rạc, cung cấp kiến thức nền tảng về logic, tập hợp, thuật toán, đồ thị, cây và đếm trong tin học.</t>
+          <t>Sinh viên có thể cân nhắc làm thủ tục đổi Combo chuyên sâu nếu cảm thấy không phù hợp với Combo hiện tại, cụ thể như sau:
+ Thời gian đăng ký chuyển combo chuyên sâu: Theo thông báo của phòng Quản lý Đào tạo được đăng trên FAP mục News – Tin tức trước khi học kỳ mới bắt đầu 2 tháng.
+ Phí chuyển combo chuyên sâu: 2,300,000 đồng
+ Cách thức đăng ký: Đăng nhập =&gt; Thủ tục/Đơn từ =&gt; Send application (Gửi đơn) =&gt; Chọn: Đề nghị đổi Combo chuyên sâu =&gt; Nhập thông tin =&gt; “Send” =&gt; Thanh toán: Quét mã QR để thanh toán lệ phí hoặc hệ thống sẽ trừ trực tiếp từ số dư trên FAP (nếu có).
+ Lưu ý: Thời gian giữ chỗ cho SV thanh toán bằng QR code là 10 phút. Nếu thanh toán sau 10 phút thì đơn sẽ bị hủy và tiền SV đã nộp sẽ được cộng vào ví FAP. khi đó sinh viên sẽ phải thao tác đăng ký lại và sử dụng tiền dư trong ví FAP. Sau khi gửi đơn, sinh viên sẽ theo dõi tại mục “View application (Xem đơn)” để nhận phản hồi của bộ phận xử lý. Đối với trường hợp hệ thống có phản hồi về phí thừa môn cần nộp: Sinh viên cần hoàn thành khoản phí này tối đa trong vòng 12 ngày kể từ thời điểm làm đơn. Nếu không hoàn thành đúng hạn, đơn sẽ bị từ chối và phí chuyển ngành cũng sẽ được hoàn về ví FAP. (Phí thừa môn là học phí của các môn học sinh viên đã được học nhưng nằm ngoài khung chương trình hiện tại. Thông thường phí thừa môn có thể xuất hiện khi sinh viên làm thủ tục chuyển ngành, chuyển combo chuyên sâu. Khi đó nếu sinh viên có các học phần đã được học ở khung chương trình cũ nhưng không có trong khung chương trình mới thì sẽ phải nộp phí thừa môn này) Lưu ý: Đối với sinh viên đổi combo sau kỳ 6 chuyên ngành, tùy từng combo cụ thể mà sau khi chuyển sinh viên có thể phải đi OJT lại hoặc không. Các môn học được thay thế trong khung chương trình mới mà sinh viên chưa được học sẽ trở thành môn học chậm kỳ và sinh viên có thể chủ động đăng ký để hoàn thành các môn học này. Sinh viên combo chuyên sâu sẽ được duy trì các loại học bổng, ưu đãi tài năng.</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Năm 2025, Đại học FPT chia ra làm 4 nhóm ngành học chính:
-1. Nhóm ngành công nghệ thông tin: Kỹ thuật phần mềm, Chuyển đổi số, Trí tuệ nhân tạo (AI), An toàn thông tin, 
-Thiết kế mỹ thuật số, Công nghệ ô tô số, Thiết kế vi mạch bán dẫn.
-2.Nhóm ngành quản trị kinh doanh: Digital Marketing, Kinh doanh quốc tế, Quản trị khách sạn, Quản trị dịch vụ du lịch và lữ hành, Công nghệ tài chính,
-Logistics và quản lý chuỗi cung ứng, Tài chính doanh nghiệp, Ngân hàng số- tài, Tài chính đầu tư.
-3. Nhóm ngành ngôn ngữ: Ngôn ngữ Anh, Ngôn ngữ Nhật (song ngữ Anh–Nhật), Ngôn ngữ Hàn Quốc (song ngữ Anh–Hàn), 
-Ngôn ngữ Trung Quốc (song ngữ Anh–Trung).
-4. Nhóm ngành truyền thông: Truyền thông đa phương tiện, Quan hệ công chúng.
-5. Nhóm ngành luật: Luật kinh tế, Luật thương mại quốc tế.</t>
+          <t>Xin lỗi, tôi không tìm thấy thông tin phù hợp với câu hỏi của bạn. Bạn có thể hỏi câu hỏi khác không?</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3178,11 +3161,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Môn học chậm kỳ hay còn gọi là môn học đi chậm kỳ là những môn học mà sinh viên không hoàn thành đúng tiến độ theo kế hoạch học tập. Điều này xảy ra khi:
-- Sinh viên không đạt yêu cầu của môn điều kiện nên chưa được xếp lớp
-- Sinh viên xin bảo lưu học phần vì lý do cá nhân
-Với môn học đi chậm kỳ sinh viên sẽ tự chủ động đăng ký khi đủ điều kiện học, hoặc sắp xếp được thời gian phù hợp.
-Sinh viên sẽ không đóng học phí khi đăng kí học môn chậm kì</t>
+          <t>Sinh viên sẽ học kỹ năng tìm kiếm, đánh giá và sử dụng thông tin, tư duy phản biện, giải quyết vấn đề, giao tiếp và xây dựng dự án học thuật.</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3197,7 +3176,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Tôi thấy môn MAD101 trong lịch học, nó là cái gì thế?</t>
+          <t>MAD101 là m0n j mà nghe lạ zị?</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3207,22 +3186,22 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Sinh viên sẽ học kỹ năng tìm kiếm, đánh giá và sử dụng thông tin, tư duy phản biện, giải quyết vấn đề, giao tiếp và xây dựng dự án học thuật.</t>
+          <t>MAD101 là môn Toán rời rạc, cung cấp kiến thức nền tảng về logic, tập hợp, thuật toán, đồ thị, cây và đếm trong tin học.</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Sai</t>
+          <t>Đúng</t>
         </is>
       </c>
       <c r="E102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>MAD101 là m0n j mà nghe lạ zị?</t>
+          <t>Tôi thấy môn MAD101 trong lịch học, nó là cái gì thế?</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -3332,7 +3311,10 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Sinh viên bị hủy bỏ kết quả bài thi do Ban Đào tạo xử lý.</t>
+          <t>Môn học Coursera sẽ không áp dụng hình thức học lại, do đó nếu sinh viên trượt môn Coursera sẽ có 2 tình huống xảy ra như sau:
+- Nếu bạn đã hoàn thành chứng chỉ của môn học, bạn sẽ đăng ký thi thẩm định trong các học kỳ tiếp theo cho đến khi pass môn.
+- Nếu bạn chưa hoàn thành chứng chỉ và không đủ điều kiện thi trong lần học đầu tiên, bạn sẽ cần tự học bằng cách tự mua tài khoản Coursera, hoặc sử dụng tài khoản Nhà trường cấp cho các môn học khác để hoàn thành chứng chỉ của môn học này. Sau khi đã có đủ chứng chỉ, bạn sẽ làm đơn đăng ký thi thẩm định cho đến khi pass môn.
+Cách thức đăng ký thi thẩm định: Truy cập fap.fpt.edu.vn mục Thủ tục/đơn từ =&gt; Gửi đơn =&gt; Chọn: Đăng ký thi thẩm định các môn online. Lệ phí đăng ký: 2,300,000đ.</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3357,7 +3339,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>PRF192 là môn Programming Fundamentals (Cơ sở lập trình), học 3 tín chỉ, dành cho bậc Cử nhân em nhé.</t>
+          <t>Điều kiện pass môn của từng mông học được Nhà trường ghi rõ trên trang học liệu, để biết thông tin chi tiết sinh viên vui lòng truy cập flm.fpt.du.vn =&gt; chọn View sylllabus =&gt; nhập mã môn muốn tra cứu để xem chi tiết điều kiện pass môn.</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3382,17 +3364,16 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Hàng kỳ, phòng Đào tạo sẽ xếp lớp mặc định cho sinh viên theo đúng lộ trình theo khung chương trình học. Tuy nhiên, tùy thuộc vào khả năng tiếp thu hoặc sinh viên có tình trạng sức khỏe đặc biệt có thể làm đơn xin bảo lưu 1-2 môn để giảm tải chương trình. Cách thức như sau: Truy cập =&gt; Mục thủ tục/đơn từ =&gt; Send application/Send application (Gửi đơn) =&gt; Chọn: Các loại đơn khác =&gt; Trình bày lí do, nguyện vọng (em muốn bảo lưu môn … với lý do và minh chứng …) =&gt; Send. Sau khi nộp đơn, sinh viên sẽ theo dõi tại mục View application (Xem đơn) để nhận kết quả từ bộ phận xử lý. Lưu ý: Sinh viên cần cân nhắc kỹ khi làm thủ tục bảo lưu học phần do có thể gặp phải rủi ro sau: Sau này khi muốn đăng ký học những môn này thì có thể gặp phải rủi ro hết lớp và phải mất công chờ đợi hoặc học thay thế bằng một môn học khác. Việc bảo lưu học phần sẽ dẫn đến kéo dài tiến độ học tập, ảnh hưởng tới thời gian tốt nghiệp.
- Tài thiệu tham khảo: chưa được cập nhật.</t>
+          <t>PRF192 qua môn cần điểm trung binh ≥ 5, bài thi final exam ≥ 4, đủ các phần.</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Sai</t>
+          <t>Đúng</t>
         </is>
       </c>
       <c r="E109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -3408,7 +3389,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Sinh viên cần đạt điểm trung bình tối thiểu là 5 và điểm thi cuối kì (final exam) &gt;= 4 để qua môn.</t>
+          <t>Để qua môn PRJ301, điểm trung bình tối thiểu là 5. Ngoài ra, các thành phần đánh giá đang diễn ra (Assignment, Practical Exam, Progress Test 1 và 2, Workshop 1 và 2) phải có điểm lớn hơn 0, và điểm thi cuối kỳ phải từ 4 trở lên.</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3429,12 +3410,12 @@
       <c r="B111" t="inlineStr"/>
       <c r="C111" t="inlineStr">
         <is>
-          <t>36/109</t>
+          <t>49/109</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Tỉ lệ đúng: 33.03%</t>
+          <t>Tỉ lệ đúng: 44.95%</t>
         </is>
       </c>
       <c r="E111" t="inlineStr"/>

--- a/test_result.xlsx
+++ b/test_result.xlsx
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Những quy định nào sinh viên cần tuân thủ khi vào phòng thi?</t>
+          <t>Vo phòng thi, SV cần tuân thủ những yêu cầu nào?</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,56 +475,26 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sinh viên phải có mặt đúng giờ, xuất trình giấy tờ tùy thân (CMT/CCCD/giấy phép lái xe), tuân thủ yêu cầu giám thị, chỉ mang vật dụng được phép, không mang thiết bị truyền tin,
-không dùng tài khoản người khác đăng nhập hệ thống thi, nghiêm cấm mọi hành vi gian lận trong lúc làm bài thi, Nếu hỏi giám thị điều gì phải hỏi công khai, sinh viên 
-chỉ được ra khỏi phòng thi và khu vuẹc thi khi được giám thị cho phép, sớm nhất là sau 2/3 thời gian làm bài từ trường hợp ốm đau cần cấp cứu</t>
+          <t>- Sinh viên phải tuyệt đối tuân thủ quy định về PCCC, không đốt nến, không tự ý lắp đặt thêm thiết bị điện và luôn kiểm tra, tắt các thiết bị điện khi không sử dụng. Việc sử dụng điện cần đúng mục đích và theo quy định của ban quản lý KTX.
+- Khi phát hiện cháy, sinh viên cần bình tĩnh xử lý theo hướng dẫn PCCC, sử dụng bình chữa cháy nếu có thể, đồng thời báo ngay cho bảo vệ KTX hoặc gọi số 114 để nhận hỗ trợ khẩn cấp.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Đúng</t>
+          <t>Sai</t>
         </is>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Vo phòng thi, SV cần tuân thủ những yêu cầu nào?</t>
+          <t>Những ngành học tại FPTU</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
-        <is>
-          <t>Sinh viên phải có mặt đúng giờ, xuất trình giấy tờ tùy thân (CMT/CCCD/giấy phép lái xe), tuân thủ yêu cầu giám thị, chỉ mang vật dụng được phép, không mang thiết bị truyền tin,
-không dùng tài khoản người khác đăng nhập hệ thống thi, nghiêm cấm mọi hành vi gian lận trong lúc làm bài thi, Nếu hỏi giám thị điều gì phải hỏi công khai, sinh viên 
-chỉ được ra khỏi phòng thi và khu vuẹc thi khi được giám thị cho phép, sớm nhất là sau 2/3 thời gian làm bài từ trường hợp ốm đau cần cấp cứu</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>- Sinh viên cần ăn mặc phù hợp với môi trường giáo dục, không phản cảm hoặc gây ảnh hưởng đến người khác.
-- Cư xử có văn hóa, tôn trọng giảng viên, cán bộ nhân viên nhà trường, khách đến thăm và các sinh viên khác.
-- Không được trao đổi, tuyên truyền thông tin xấu, trái với luật pháp Việt Nam và thuần phong mỹ tục.</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Sai</t>
-        </is>
-      </c>
-      <c r="E3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Những ngành học tại FPTU</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
         <is>
           <t>Năm 2025, Đại học FPT chia ra làm 4 nhóm ngành học chính:
 1. Nhóm ngành công nghệ thông tin: Kỹ thuật phần mềm, Chuyển đổi số, Trí tuệ nhân tạo (AI), An toàn thông tin, 
@@ -537,1354 +507,7 @@
 5. Nhóm ngành luật: Luật kinh tế, Luật thương mại quốc tế.</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Năm 2025, Đại học FPT chia ra làm 4 nhóm ngành học chính:
-1. Nhóm ngành công nghệ thông tin: Kỹ thuật phần mềm, Chuyển đổi số, Trí tuệ nhân tạo (AI), An toàn thông tin, 
-Thiết kế mỹ thuật số, Công nghệ ô tô số, Thiết kế vi mạch bán dẫn.
-2.Nhóm ngành quản trị kinh doanh: Digital Marketing, Kinh doanh quốc tế, Quản trị khách sạn, Quản trị dịch vụ du lịch và lữ hành, Công nghệ tài chính,
-Logistics và quản lý chuỗi cung ứng, Tài chính doanh nghiệp, Ngân hàng số- tài, Tài chính đầu tư.
-3. Nhóm ngành ngôn ngữ: Ngôn ngữ Anh, Ngôn ngữ Nhật (song ngữ Anh–Nhật), Ngôn ngữ Hàn Quốc (song ngữ Anh–Hàn), 
-Ngôn ngữ Trung Quốc (song ngữ Anh–Trung).
-4. Nhóm ngành truyền thông: Truyền thông đa phương tiện, Quan hệ công chúng.
-5. Nhóm ngành luật: Luật kinh tế, Luật thương mại quốc tế.</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Sai</t>
-        </is>
-      </c>
-      <c r="E4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Sinh viên cần tuân thủ yêu-cầu-nào-khi-vào-phòng-thi?</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Sinh viên phải có mặt đúng giờ, xuất trình giấy tờ tùy thân (CMT/CCCD/giấy phép lái xe), tuân thủ yêu cầu giám thị, chỉ mang vật dụng được phép, không mang thiết bị truyền tin,
-không dùng tài khoản người khác đăng nhập hệ thống thi, nghiêm cấm mọi hành vi gian lận trong lúc làm bài thi, Nếu hỏi giám thị điều gì phải hỏi công khai, sinh viên 
-chỉ được ra khỏi phòng thi và khu vuẹc thi khi được giám thị cho phép, sớm nhất là sau 2/3 thời gian làm bài từ trường hợp ốm đau cần cấp cứu</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Sinh viên phải có mặt đúng giờ, xuất trình giấy tờ tùy thân (CMT/CCCD/giấy phép lái xe), tuân thủ yêu cầu giám thị, chỉ mang vật dụng được phép, không mang thiết bị truyền tin,
-không dùng tài khoản người khác đăng nhập hệ thống thi, nghiêm cấm mọi hành vi gian lận trong lúc làm bài thi, Nếu hỏi giám thị điều gì phải hỏi công khai, sinh viên 
-chỉ được ra khỏi phòng thi và khu vuẹc thi khi được giám thị cho phép, sớm nhất là sau 2/3 thời gian làm bài từ trường hợp ốm đau cần cấp cứu</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Đúng</t>
-        </is>
-      </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>SV cần đáp ứng mấy yêu cầu trước lúc vào phòng thi vậy?</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Sinh viên phải có mặt đúng giờ, xuất trình giấy tờ tùy thân (CMT/CCCD/giấy phép lái xe), tuân thủ yêu cầu giám thị, chỉ mang vật dụng được phép, không mang thiết bị truyền tin,
-không dùng tài khoản người khác đăng nhập hệ thống thi, nghiêm cấm mọi hành vi gian lận trong lúc làm bài thi, Nếu hỏi giám thị điều gì phải hỏi công khai, sinh viên 
-chỉ được ra khỏi phòng thi và khu vuẹc thi khi được giám thị cho phép, sớm nhất là sau 2/3 thời gian làm bài từ trường hợp ốm đau cần cấp cứu</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Sinh viên phải có mặt đúng giờ, xuất trình giấy tờ tùy thân (CMT/CCCD/giấy phép lái xe), tuân thủ yêu cầu giám thị, chỉ mang vật dụng được phép, không mang thiết bị truyền tin,
-không dùng tài khoản người khác đăng nhập hệ thống thi, nghiêm cấm mọi hành vi gian lận trong lúc làm bài thi, Nếu hỏi giám thị điều gì phải hỏi công khai, sinh viên 
-chỉ được ra khỏi phòng thi và khu vuẹc thi khi được giám thị cho phép, sớm nhất là sau 2/3 thời gian làm bài từ trường hợp ốm đau cần cấp cứu</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Đúng</t>
-        </is>
-      </c>
-      <c r="E6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Các yêu cầu sinh viên phải thực hiện, khi vào phòng thi, là chi?</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Sinh viên phải có mặt đúng giờ, xuất trình giấy tờ tùy thân (CMT/CCCD/giấy phép lái xe), tuân thủ yêu cầu giám thị, chỉ mang vật dụng được phép, không mang thiết bị truyền tin,
-không dùng tài khoản người khác đăng nhập hệ thống thi, nghiêm cấm mọi hành vi gian lận trong lúc làm bài thi, Nếu hỏi giám thị điều gì phải hỏi công khai, sinh viên 
-chỉ được ra khỏi phòng thi và khu vuẹc thi khi được giám thị cho phép, sớm nhất là sau 2/3 thời gian làm bài từ trường hợp ốm đau cần cấp cứu</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Sinh viên phải có mặt đúng giờ, xuất trình giấy tờ tùy thân (CMT/CCCD/giấy phép lái xe), tuân thủ yêu cầu giám thị, chỉ mang vật dụng được phép, không mang thiết bị truyền tin,
-không dùng tài khoản người khác đăng nhập hệ thống thi, nghiêm cấm mọi hành vi gian lận trong lúc làm bài thi, Nếu hỏi giám thị điều gì phải hỏi công khai, sinh viên 
-chỉ được ra khỏi phòng thi và khu vuẹc thi khi được giám thị cho phép, sớm nhất là sau 2/3 thời gian làm bài từ trường hợp ốm đau cần cấp cứu</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Đúng</t>
-        </is>
-      </c>
-      <c r="E7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Sinh viên đi trễ bn lâu thì k đc thi?</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Sinh viên đến muộn quá 5 phút sau giờ thi chính thức không được dự thi và bị tính mất lượt thi.</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Sinh viên đến muộn quá 5 phút sau giờ thi chính thức không được dự thi và bị tính mất lượt thi.</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Đúng</t>
-        </is>
-      </c>
-      <c r="E8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Đi muộn mấy phút là không được thi nữa?</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Sinh viên đến muộn quá 5 phút sau giờ thi chính thức không được dự thi và bị tính mất lượt thi.</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Sinh viên đến muộn quá 5 phút sau giờ thi chính thức không được dự thi và bị tính mất lượt thi.</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Đúng</t>
-        </is>
-      </c>
-      <c r="E9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Sinh viên trễ bao nhiêu phút thì không được vào thi?</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Sinh viên đến muộn quá 5 phút sau giờ thi chính thức không được dự thi và bị tính mất lượt thi.</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Sinh viên đến muộn quá 5 phút sau giờ thi chính thức không được dự thi và bị tính mất lượt thi.</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Đúng</t>
-        </is>
-      </c>
-      <c r="E10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>SV đến trễ quá mấy phút là rớt quyền thi?</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Sinh viên đến muộn quá 5 phút sau giờ thi chính thức không được dự thi và bị tính mất lượt thi.</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Sinh viên đến muộn quá 5 phút sau giờ thi chính thức không được dự thi và bị tính mất lượt thi.</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Đúng</t>
-        </is>
-      </c>
-      <c r="E11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Những hành vi nào SV tuyệt đối ko dc làm trong phòng thi?</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Nhìn bài bạn, trao đổi, gian lận, mang thiết bị truyền tin, sử dụng phần mềm ngoài phần mềm thi, sao chép đề, mang đề ra ngoài,
-mang vũ khí, chất cấm, kết nối mạng trái phép, nhận bài từ ngoài, sử dụng AI không khai báo.</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Nhìn bài bạn, trao đổi, gian lận, mang thiết bị truyền tin, sử dụng phần mềm ngoài phần mềm thi, sao chép đề, mang đề ra ngoài, mang vũ khí, chất cấm, 
-kết nối mạng trái phép, nhận bài từ ngoài, sử dụng AI không khai báo.</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Sai</t>
-        </is>
-      </c>
-      <c r="E12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Sinh viên muộn &gt;15 phút thì có thi được không?</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Sinh viên đến muộn quá 5 phút sau giờ thi chính thức không được dự thi và bị tính mất lượt thi.</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Sinh viên đến muộn quá 5 phút sau giờ thi chính thức không được dự thi và bị tính mất lượt thi.</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Đúng</t>
-        </is>
-      </c>
-      <c r="E13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Ai vi phạm kỳ thi thì có thể bị xử lý như thế nào?</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Sinh viên sẽ bị cảnh cáo, đình chỉ thi, đình chỉ học tập 1 học kỳ, buộc thôi học, hoặc giao cơ quan công an xử lý nếu vi phạm pháp luật.</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Tùy vào tính chất và mức độ vi phạm, Trường, Ban Đào tạo sẽ áp dụng hình thức xử lý phù hợp trong các hình thức kỷ luật bao gồm: cảnh cáo, đình chỉ thi, 
-đình chỉ học tập, buộc thôi học.</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Sai</t>
-        </is>
-      </c>
-      <c r="E14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Những điều cấm khi thi là gì?</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Nhìn bài bạn, trao đổi, gian lận, mang thiết bị truyền tin, sử dụng phần mềm ngoài phần mềm thi, sao chép đề, mang đề ra ngoài, 
-mang vũ khí, chất cấm, kết nối mạng trái phép, nhận bài từ ngoài, sử dụng AI không khai báo.</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Sinh viên sẽ bị cảnh cáo, đình chỉ thi, đình chỉ học tập 1 học kỳ, buộc thôi học, hoặc giao cơ quan công an xử lý nếu vi phạm pháp luật.</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Sai</t>
-        </is>
-      </c>
-      <c r="E15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Các mức phạt cho hành vi vi phạm quy chế thi?</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Sinh viên sẽ bị cảnh cáo, đình chỉ thi, đình chỉ học tập 1 học kỳ, buộc thôi học, hoặc giao cơ quan công an xử lý nếu vi phạm pháp luật.</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Sinh viên sẽ bị cảnh cáo, đình chỉ thi, đình chỉ học tập 1 học kỳ, buộc thôi học, hoặc giao cơ quan công an xử lý nếu vi phạm pháp luật.</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Đúng</t>
-        </is>
-      </c>
-      <c r="E16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>SV mà trao đổi bài là đi luôn đúng không?</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Lần đầu sinh viên bị cảnh cáo do Ban Đào tạo xử lý; lần thứ hai bị đình chỉ thi do Ban Đào tạo xử lý.</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Lần đầu sinh viên bị đình chỉ thi do Ban Đào tạo xử lý</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Sai</t>
-        </is>
-      </c>
-      <c r="E17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Trao đổi, nhìn bài trong giờ thi có bị phạt không?</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Lần đầu sinh viên bị cảnh cáo do Ban Đào tạo xử lý; lần thứ hai bị đình chỉ thi do Ban Đào tạo xử lý.</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Lần đầu sinh viên bị cảnh cáo do Ban Đào tạo xử lý; lần thứ hai bị đình chỉ thi do Ban Đào tạo xử lý.</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Đúng</t>
-        </is>
-      </c>
-      <c r="E18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Thi giấy mà nói chuyện không đúng đề là vi phạm gì?</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Lần đầu sinh viên bị cảnh cáo do Ban Đào tạo xử lý; lần thứ hai bị đình chỉ thi do Ban Đào tạo xử lý.</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Sinh viên sẽ bị cảnh cáo, đình chỉ thi, đình chỉ học tập 1 học kỳ, buộc thôi học, hoặc giao cơ quan công an xử lý nếu vi phạm pháp luật.</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Sai</t>
-        </is>
-      </c>
-      <c r="E19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Bao nhiêu tiền cho 1 TC?</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Học phí 1 tín chỉ: FPTU Hà Nội, TP. Hồ Chí Minh: 1.840.000 VNĐ/tín chỉ; FPTU Đà Nẵng, Bình Định, Cần Thơ: 1.290.000 VNĐ/tín chỉ.</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Theo quy định tài chính và biểu học phí các môn học lại. Nếu sinh viên đăng ký học lại ngay trong Block 5 của học kỳ hoặc trong kỳ tiếp theo thì sẽ được áp dụng mức học phí học lại sớm bằng 50% biểu phí môn. Nếu đăng ký học lại sau thời điểm này, sinh viên sẽ phải nộp 100% biểu phí môn.
-Sinh viên vi phạm quy chế thi khi đăng ký học lại sẽ áp dụng mức học phí bằng 2 lần học phí học lại so với sinh viên không vi phạm quy chế.</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Sai</t>
-        </is>
-      </c>
-      <c r="E20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Sinh viên thi giấy mà nói chuyện ngoài lề thì bị sao?</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Lần đầu sinh viên bị cảnh cáo do Ban Đào tạo xử lý; lần thứ hai bị đình chỉ thi do Ban Đào tạo xử lý.</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Lần đầu sinh viên bị cảnh cáo do Ban Đào tạo xử lý; lần thứ hai bị đình chỉ thi do Ban Đào tạo xử lý.</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Đúng</t>
-        </is>
-      </c>
-      <c r="E21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>SV bị sao nếu nói chuyện khi làm bài thi giấy mà không liên quan nội dung?</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Lần đầu sinh viên bị cảnh cáo do Ban Đào tạo xử lý; lần thứ hai bị đình chỉ thi do Ban Đào tạo xử lý.</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Lần đầu sinh viên bị cảnh cáo do Ban Đào tạo xử lý; lần thứ hai bị đình chỉ thi do Ban Đào tạo xử lý.</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Đúng</t>
-        </is>
-      </c>
-      <c r="E22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Anh/chị cho em hỏi 1 tín chỉ mất bao nhiêu tiền ạ?</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Học phí 1 tín chỉ: FPTU Hà Nội, TP. Hồ Chí Minh: 1.840.000 VNĐ/tín chỉ; FPTU Đà Nẵng, Bình Định, Cần Thơ: 1.290.000 VNĐ/tín chỉ.</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Học phí 1 tín chỉ: FPTU Hà Nội, TP. Hồ Chí Minh: 1.840.000 VNĐ/tín chỉ; FPTU Đà Nẵng, Bình Định, Cần Thơ: 1.290.000 VNĐ/tín chỉ.</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Đúng</t>
-        </is>
-      </c>
-      <c r="E23" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Ở FPTU, 1 tín chỉ học phí bao nhiêu?</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Học phí 1 tín chỉ: FPTU Hà Nội, TP. Hồ Chí Minh: 1.840.000 VNĐ/tín chỉ; FPTU Đà Nẵng, Bình Định, Cần Thơ: 1.290.000 VNĐ/tín chỉ.</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Học phí 1 tín chỉ: FPTU Hà Nội, TP. Hồ Chí Minh: 1.840.000 VNĐ/tín chỉ; FPTU Đà Nẵng, Bình Định, Cần Thơ: 1.290.000 VNĐ/tín chỉ.</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Đúng</t>
-        </is>
-      </c>
-      <c r="E24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Bao tiền cho 1 TC z mày</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Học phí 1 tín chỉ: FPTU Hà Nội, TP. Hồ Chí Minh: 1.840.000 VNĐ/tín chỉ; FPTU Đà Nẵng, Bình Định, Cần Thơ: 1.290.000 VNĐ/tín chỉ.</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Học phí kỳ định hướng: Hà Nội/HCM 13,100,000 đồng; Đà Nẵng/Cần Thơ 9,170,000 đồng; Bình Định 6,550,000 đồng. Học phí tiếng Anh chuẩn bị: 
-Hà Nội/HCM 13,100,000 đồng;  Đà Nẵng/Cần Thơ 9,170,000 đồng; Bình Định 6,550,000 đồng.</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Sai</t>
-        </is>
-      </c>
-      <c r="E25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Học phí một tín chỉ chương trình chính quy là bao nhiêu?</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Học phí 1 tín chỉ: FPTU Hà Nội, TP. Hồ Chí Minh: 1.840.000 VNĐ/tín chỉ; FPTU Đà Nẵng, Bình Định, Cần Thơ: 1.290.000 VNĐ/tín chỉ.</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Học phí 1 tín chỉ: FPTU Hà Nội, TP. Hồ Chí Minh: 1.840.000 VNĐ/tín chỉ; FPTU Đà Nẵng, Bình Định, Cần Thơ: 1.290.000 VNĐ/tín chỉ.</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Đúng</t>
-        </is>
-      </c>
-      <c r="E26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>1 tín chỉ 950k hả bạn?</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Học phí 1 tín chỉ: FPTU Hà Nội, TP. Hồ Chí Minh: 1.840.000 VNĐ/tín chỉ; FPTU Đà Nẵng, Bình Định, Cần Thơ: 1.290.000 VNĐ/tín chỉ.</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Học phí 1 tín chỉ: FPTU Hà Nội, TP. Hồ Chí Minh: 1.840.000 VNĐ/tín chỉ; FPTU Đà Nẵng, Bình Định, Cần Thơ: 1.290.000 VNĐ/tín chỉ.</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Đúng</t>
-        </is>
-      </c>
-      <c r="E27" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Một tín chỉ tính bao nhiêu vậy ta?</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Học phí 1 tín chỉ: FPTU Hà Nội, TP. Hồ Chí Minh: 1.840.000 VNĐ/tín chỉ; FPTU Đà Nẵng, Bình Định, Cần Thơ: 1.290.000 VNĐ/tín chỉ.</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Học phí 1 tín chỉ: FPTU Hà Nội, TP. Hồ Chí Minh: 1.840.000 VNĐ/tín chỉ; FPTU Đà Nẵng, Bình Định, Cần Thơ: 1.290.000 VNĐ/tín chỉ.</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Đúng</t>
-        </is>
-      </c>
-      <c r="E28" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Học phí mỗi học kỳ cho 1 tín chỉ là bao nhiêu?</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Học phí 1 tín chỉ: FPTU Hà Nội, TP. Hồ Chí Minh: 1.840.000 VNĐ/tín chỉ; FPTU Đà Nẵng, Bình Định, Cần Thơ: 1.290.000 VNĐ/tín chỉ.</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Học phí 1 tín chỉ: FPTU Hà Nội, TP. Hồ Chí Minh: 1.840.000 VNĐ/tín chỉ; FPTU Đà Nẵng, Bình Định, Cần Thơ: 1.290.000 VNĐ/tín chỉ.</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Đúng</t>
-        </is>
-      </c>
-      <c r="E29" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Bây giờ 1 tín chỉ bao nhiêu, có tăng không?</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Học phí 1 tín chỉ: FPTU Hà Nội, TP. Hồ Chí Minh: 1.840.000 VNĐ/tín chỉ; FPTU Đà Nẵng, Bình Định, Cần Thơ: 1.290.000 VNĐ/tín chỉ.</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Học phí 1 tín chỉ: FPTU Hà Nội, TP. Hồ Chí Minh: 1.840.000 VNĐ/tín chỉ; FPTU Đà Nẵng, Bình Định, Cần Thơ: 1.290.000 VNĐ/tín chỉ.</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Đúng</t>
-        </is>
-      </c>
-      <c r="E30" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Xin vui lòng cho tôi biết mức học phí áp dụng cho một (01) tín chỉ là bao nhiêu đồng?</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Học phí 1 tín chỉ: FPTU Hà Nội, TP. Hồ Chí Minh: 1.840.000 VNĐ/tín chỉ; FPTU Đà Nẵng, Bình Định, Cần Thơ: 1.290.000 VNĐ/tín chỉ.</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Học phí 1 tín chỉ: FPTU Hà Nội, TP. Hồ Chí Minh: 1.840.000 VNĐ/tín chỉ; FPTU Đà Nẵng, Bình Định, Cần Thơ: 1.290.000 VNĐ/tín chỉ.</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Đúng</t>
-        </is>
-      </c>
-      <c r="E31" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Không pass MCO201m, chuyển qua học MCO201c được không ạ?</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Có thể, MCO201c tương đương với MCO201m trong ngành BBA_MC.</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Có thể, MCO201c tương đương với MCO201m trong ngành BBA_MC.</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Đúng</t>
-        </is>
-      </c>
-      <c r="E32" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>HP 1 TC = ?</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Học phí 1 tín chỉ: FPTU Hà Nội, TP. Hồ Chí Minh: 1.840.000 VNĐ/tín chỉ; FPTU Đà Nẵng, Bình Định, Cần Thơ: 1.290.000 VNĐ/tín chỉ.</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Vui lòng tham khảo và làm theo hướng dẫn trong video: https://www.youtube.com/watch?v=t5zvj5xhWbs&amp;t=8s</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Sai</t>
-        </is>
-      </c>
-      <c r="E33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>MCO201m không đậu, nhà trường có cho chuyển sang MCO201c học không?</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Có thể, MCO201c tương đương với MCO201m trong ngành BBA_MC.</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Có thể, MCO201c tương đương với MCO201m trong ngành BBA_MC.</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Đúng</t>
-        </is>
-      </c>
-      <c r="E34" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>MCO201m fail rồi, học MCO201c = pass được hok?</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Có thể, MCO201c tương đương với MCO201m trong ngành BBA_MC.</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Có thể, MCO201c tương đương với MCO201m trong ngành BBA_MC.</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Đúng</t>
-        </is>
-      </c>
-      <c r="E35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>MCO201c hoc thay MCO201m duoc khong vay?</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Có thể, MCO201c tương đương với MCO201m trong ngành BBA_MC.</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Có thể, MCO201c tương đương với MCO201m trong ngành BBA_MC.</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Đúng</t>
-        </is>
-      </c>
-      <c r="E36" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Em cần đáp ứng điều kiện gì để được đi thực tập?</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Sinh viên phải hoàn thành ít nhất 90% tín chỉ chuyên môn trước OJT/ on job training / thực tập.</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Không em nhé. Sinh viên chỉ được thi cuối kỳ nếu đáp ứng đầy đủ điều kiện trong đề cương học phần và yêu cầu đặc thù của bộ môn.</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Sai</t>
-        </is>
-      </c>
-      <c r="E37" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Những ai đủ điều kiện đi thực tập OJT?</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Sinh viên phải hoàn thành ít nhất 90% tín chỉ chuyên môn trước OJT/ on job training / thực tập.</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Sinh viên không đủ điều kiện đi OJT/ on job training/ thực tập sẽ được đưa vào diện tạm ngưng bắt buộc để học lại và không cần làm thủ tục tạm hoãn tiến độ một học kỳ để học lại. Sinh viên sẽ không phải nộp học phí của kỳ tiếp theo mà sẽ chỉ cần đăng ký học lại hoặc học chậm kỳ (nếu có).
-Trường hợp sinh viên thuộc diện tạm ngưng bắt buộc nhưng không đăng ký học lại sẽ bị đưa vào danh sách thôi học tự nguyện.</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Sai</t>
-        </is>
-      </c>
-      <c r="E38" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>dk di ojt la gi???</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Sinh viên phải hoàn thành ít nhất 90% tín chỉ chuyên môn trước OJT/ on job training / thực tập.</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Sinh viên có thể đi OJT từ trước khi kỳ OJT bắt đầu nhưng sẽ chỉ được ghi nhận và lấy đánh giá từ ngày đầu tiên của học kỳ OJT.</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Sai</t>
-        </is>
-      </c>
-      <c r="E39" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Gửi giúp em thông tin điều kiện OJT với</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Sinh viên phải hoàn thành ít nhất 90% tín chỉ chuyên môn trước OJT/ on job training / thực tập.</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Để đạt học phần OJT sinh viên cần đạt các điều kiện sau:
-- Thời gian tham gia OJT: Tối thiểu 14 tuần
-- Điểm đánh giá &gt;= 5 (Không có đầu điểm &lt;4)
-- Tỉ trọng các đầu điểm: Thái độ: 30%; Kỹ năng mềm: 30%; Kiến thức, kỹ năng chuyên môn: 40%.
-- Điểm của học phần OJT không tính vào điểm GPA.</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Sai</t>
-        </is>
-      </c>
-      <c r="E40" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>So với năm trước, điều kiện đi OJT có khác gì không?</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Sinh viên phải hoàn thành ít nhất 90% tín chỉ chuyên môn trước OJT/ on job training / thực tập.</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>- Hoàn thành tối thiểu 90% tổng số tín chỉ của các học phần chuyên môn (không bao gồm Giáo giục quốc phòng, Giáo dục thể chất) được nhà trường quy định trong giai đoạn trước OJT/ on job training/ thực tập của chương trình giáo dục đại học theo ngành được đào tạo, tương đương với không nợ quá 2 môn (mỗi môn 3 tín chỉ).
-- Riêng với sinh viên chuyên ngành hẹp JS cần phải pass JPD133
-Tài liệu tham khảo: https://drive.google.com/file/d/15eqz7PEcShvSdcQhqlcEhOzl3HpDJ07E/view , trang 4</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Sai</t>
-        </is>
-      </c>
-      <c r="E41" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>E tính học D.Marketing ở FPT SG, học phí tnao vậy mn?</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Học phí ngành Digital Marketing tại cơ sở TP. Hồ Chí Minh như sau: Kỳ 1–3: 31,600,000 đồng/kỳ, Kỳ 4–6: 33,600,000 đồng/kỳ,
- Kỳ 7–9: 35,800,000 đồng/kỳ</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Học phí ngành Digital Marketing tại cơ sở Hà Nội: Kỳ 1–3: 31,600,000 đồng/kỳ, Kỳ 4–6: 33,600,000 đồng/kỳ, Kỳ 7–9: 35,800,000 đồng/kỳ; tại cơ sở TP. Hồ Chí Minh: Kỳ 1–3: 31,600,000 đồng/kỳ, Kỳ 4–6: 33,600,000 đồng/kỳ, Kỳ 7–9: 35,800,000 đồng/kỳ; tại cơ sở Đà Nẵng: Kỳ 1–3: 22,120,000 đồng/kỳ, Kỳ 4–6: 23,520,000 đồng/kỳ, Kỳ 7–9: 25,060,000 đồng/kỳ; tại cơ sở Cần Thơ: Kỳ 1–3: 22,120,000 đồng/kỳ, Kỳ 4–6: 23,520,000 đồng/kỳ, Kỳ 7–9: 25,060,000 đồng/kỳ; tại cơ sở Bình Định: Kỳ 1–3: 15,800,000 đồng/kỳ, Kỳ 4–6: 16,800,000 đồng/kỳ, Kỳ 7–9: 17,900,000 đồng/kỳ</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Sai</t>
-        </is>
-      </c>
-      <c r="E42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Muốn di thuc tap thì phai dap ung dieu kien gi?</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Sinh viên phải hoàn thành ít nhất 90% tín chỉ chuyên môn trước OJT/ on job training / thực tập.</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Em hỏi IC-PDP để được hướng dẫn chi tiết.</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Sai</t>
-        </is>
-      </c>
-      <c r="E43" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Hỏi nhẹ: học phí FPT ngành Digimar cơ sở SG bh vậy?</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Học phí ngành Digital Marketing tại cơ sở TP. Hồ Chí Minh như sau: Kỳ 1–3: 31,600,000 đồng/kỳ, Kỳ 4–6: 33,600,000 đồng/kỳ, 
-Kỳ 7–9: 35,800,000 đồng/kỳ</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Năm 2025, Đại học FPT chia ra làm 4 nhóm ngành học chính:
-1. Nhóm ngành công nghệ thông tin: Kỹ thuật phần mềm, Chuyển đổi số, Trí tuệ nhân tạo (AI), An toàn thông tin, 
-Thiết kế mỹ thuật số, Công nghệ ô tô số, Thiết kế vi mạch bán dẫn.
-2.Nhóm ngành quản trị kinh doanh: Digital Marketing, Kinh doanh quốc tế, Quản trị khách sạn, Quản trị dịch vụ du lịch và lữ hành, Công nghệ tài chính,
-Logistics và quản lý chuỗi cung ứng, Tài chính doanh nghiệp, Ngân hàng số- tài, Tài chính đầu tư.
-3. Nhóm ngành ngôn ngữ: Ngôn ngữ Anh, Ngôn ngữ Nhật (song ngữ Anh–Nhật), Ngôn ngữ Hàn Quốc (song ngữ Anh–Hàn), 
-Ngôn ngữ Trung Quốc (song ngữ Anh–Trung).
-4. Nhóm ngành truyền thông: Truyền thông đa phương tiện, Quan hệ công chúng.
-5. Nhóm ngành luật: Luật kinh tế, Luật thương mại quốc tế.</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Sai</t>
-        </is>
-      </c>
-      <c r="E44" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Ngành Tiếp thị Kỹ thuật số ở FPT TP.HCM học phí bao nhiêu thế?</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Học phí ngành Digital Marketing tại cơ sở TP. Hồ Chí Minh như sau: Kỳ 1–3: 31,600,000 đồng/kỳ, Kỳ 4–6: 33,600,000 đồng/kỳ,
- Kỳ 7–9: 35,800,000 đồng/kỳ</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Học phí ngành Thiết kế mỹ thuật số tại cơ sở TP. Hồ Chí Minh như sau: Kỳ 1–3: 31,600,000 đồng/kỳ, Kỳ 4–6: 33,600,000 đồng/kỳ, Kỳ 7–9: 35,800,000 đồng/kỳ</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Sai</t>
-        </is>
-      </c>
-      <c r="E45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Học Digital Marketing trong đó (TP.HCM) thì học phí có mắc hông ạ?</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Học phí ngành Digital Marketing tại cơ sở TP. Hồ Chí Minh như sau: Kỳ 1–3: 31,600,000 đồng/kỳ, Kỳ 4–6: 33,600,000 đồng/kỳ,
- Kỳ 7–9: 35,800,000 đồng/kỳ</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Học phí ngành Digital Marketing tại cơ sở Hà Nội: Kỳ 1–3: 31,600,000 đồng/kỳ, Kỳ 4–6: 33,600,000 đồng/kỳ, Kỳ 7–9: 35,800,000 đồng/kỳ; tại cơ sở TP. Hồ Chí Minh: Kỳ 1–3: 31,600,000 đồng/kỳ, Kỳ 4–6: 33,600,000 đồng/kỳ, Kỳ 7–9: 35,800,000 đồng/kỳ; tại cơ sở Đà Nẵng: Kỳ 1–3: 22,120,000 đồng/kỳ, Kỳ 4–6: 23,520,000 đồng/kỳ, Kỳ 7–9: 25,060,000 đồng/kỳ; tại cơ sở Cần Thơ: Kỳ 1–3: 22,120,000 đồng/kỳ, Kỳ 4–6: 23,520,000 đồng/kỳ, Kỳ 7–9: 25,060,000 đồng/kỳ; tại cơ sở Bình Định: Kỳ 1–3: 15,800,000 đồng/kỳ, Kỳ 4–6: 16,800,000 đồng/kỳ, Kỳ 7–9: 17,900,000 đồng/kỳ</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Sai</t>
-        </is>
-      </c>
-      <c r="E46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Đu học ngành Digi tại FPT SG thì mất nhiu xiền ạaa</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Học phí ngành Digital Marketing tại cơ sở TP. Hồ Chí Minh như sau: Kỳ 1–3: 31,600,000 đồng/kỳ, Kỳ 4–6: 33,600,000 đồng/kỳ,
- Kỳ 7–9: 35,800,000 đồng/kỳ</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Năm 2025, Đại học FPT chia ra làm 4 nhóm ngành học chính:
-1. Nhóm ngành công nghệ thông tin: Kỹ thuật phần mềm, Chuyển đổi số, Trí tuệ nhân tạo (AI), An toàn thông tin, 
-Thiết kế mỹ thuật số, Công nghệ ô tô số, Thiết kế vi mạch bán dẫn.
-2.Nhóm ngành quản trị kinh doanh: Digital Marketing, Kinh doanh quốc tế, Quản trị khách sạn, Quản trị dịch vụ du lịch và lữ hành, Công nghệ tài chính,
-Logistics và quản lý chuỗi cung ứng, Tài chính doanh nghiệp, Ngân hàng số- tài, Tài chính đầu tư.
-3. Nhóm ngành ngôn ngữ: Ngôn ngữ Anh, Ngôn ngữ Nhật (song ngữ Anh–Nhật), Ngôn ngữ Hàn Quốc (song ngữ Anh–Hàn), 
-Ngôn ngữ Trung Quốc (song ngữ Anh–Trung).
-4. Nhóm ngành truyền thông: Truyền thông đa phương tiện, Quan hệ công chúng.
-5. Nhóm ngành luật: Luật kinh tế, Luật thương mại quốc tế.</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Sai</t>
-        </is>
-      </c>
-      <c r="E47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Bot cho em biết học phí dmark ở FPT TP.HCM đi, em chuẩn bị bán thận nèee</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Học phí ngành Digital Marketing tại cơ sở TP. Hồ Chí Minh như sau: Kỳ 1–3: 31,600,000 đồng/kỳ, Kỳ 4–6: 33,600,000 đồng/kỳ, 
-Kỳ 7–9: 35,800,000 đồng/kỳ</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Học phí ngành Chuyển đổi số tại cơ sở TP. Hồ Chí Minh như sau: Kỳ 1–3: 31,600,000 đồng/kỳ, Kỳ 4–6: 33,600,000 đồng/kỳ, Kỳ 7–9: 35,800,000 đồng/kỳ</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Sai</t>
-        </is>
-      </c>
-      <c r="E48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Những điều sinh viên cần phải tuân theo trong ký túc xá là gì</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Nội quy ký túc xá quy định giờ mở cửa từ 5h00, đóng cửa 22h30; sinh viên phải đăng ký tạm trú, báo vắng nếu đi quá 3 ngày; khách phải đăng ký tại phòng trực,
-không tiếp khách sau 22h30; chỉ được mang thiết bị như tivi, tủ lạnh &lt;110L, quạt, ấm điện (thiết bị khác cần xin phép); sinh viên ở mà không đóng phí đúng hạn
-có thể bị ngừng xếp lớp; nghiêm cấm đánh bạc, rượu, ma túy, nuôi thú, nấu ăn trong phòng, tổ chức tiệc sau 22h; không tự ý sửa phòng, gắn thiết bị, phá hoại tài sản;
-phải giữ vệ sinh sạch sẽ, đổ rác đúng nơi, không gây mùi; cấm mang chất cháy nổ, báo cháy giả.</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>- Sinh viên phải tuyệt đối tuân thủ quy định về PCCC, không đốt nến, không tự ý lắp đặt thêm thiết bị điện và luôn kiểm tra, tắt các thiết bị điện khi không sử dụng. Việc sử dụng điện cần đúng mục đích và theo quy định của ban quản lý KTX.
-- Khi phát hiện cháy, sinh viên cần bình tĩnh xử lý theo hướng dẫn PCCC, sử dụng bình chữa cháy nếu có thể, đồng thời báo ngay cho bảo vệ KTX hoặc gọi số 114 để nhận hỗ trợ khẩn cấp.</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Sai</t>
-        </is>
-      </c>
-      <c r="E49" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>KTX có luật lệ gì cần nhớ hông Z</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Nội quy ký túc xá quy định giờ mở cửa từ 5h00, đóng cửa 22h30; sinh viên phải đăng ký tạm trú, báo vắng nếu đi quá 3 ngày; khách phải đăng ký tại phòng trực,
-không tiếp khách sau 22h30; chỉ được mang thiết bị như tivi, tủ lạnh &lt;110L, quạt, ấm điện (thiết bị khác cần xin phép); sinh viên ở mà không đóng phí đúng hạn
-có thể bị ngừng xếp lớp; nghiêm cấm đánh bạc, rượu, ma túy, nuôi thú, nấu ăn trong phòng, tổ chức tiệc sau 22h; không tự ý sửa phòng, gắn thiết bị, phá hoại tài sản;
-phải giữ vệ sinh sạch sẽ, đổ rác đúng nơi, không gây mùi; cấm mang chất cháy nổ, báo cháy giả.</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Nếu phát hiện bạn cùng phòng có biểu hiện bất thường về sức khỏe, sinh viên cần thông báo hoặc hỗ trợ đưa người đó đến phòng y tế để được kiểm tra và điều trị.</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Sai</t>
-        </is>
-      </c>
-      <c r="E50" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Những điều cấm kỵ trong ký túc xá là gì vậy?</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Nội quy ký túc xá quy định giờ mở cửa từ 5h00, đóng cửa 22h30; sinh viên phải đăng ký tạm trú, báo vắng nếu đi quá 3 ngày; khách phải đăng ký tại phòng trực,
-không tiếp khách sau 22h30; chỉ được mang thiết bị như tivi, tủ lạnh &lt;110L, quạt, ấm điện (thiết bị khác cần xin phép); sinh viên ở mà không đóng phí đúng hạn
-có thể bị ngừng xếp lớp; nghiêm cấm đánh bạc, rượu, ma túy, nuôi thú, nấu ăn trong phòng, tổ chức tiệc sau 22h; không tự ý sửa phòng, gắn thiết bị, phá hoại tài sản;
-phải giữ vệ sinh sạch sẽ, đổ rác đúng nơi, không gây mùi; cấm mang chất cháy nổ, báo cháy giả.</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>- Sinh viên không được gây gổ, kích động đánh nhau, mang vũ khí hoặc vật dụng nguy hiểm vào KTX. Mọi hành vi làm mất an ninh trật tự hoặc gây ảnh hưởng đến người khác sẽ bị xử lý nghiêm.
-- Không leo trèo hàng rào, ban công, sân thượng</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Sai</t>
-        </is>
-      </c>
-      <c r="E51" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Khuôn viên trường FPT ở Hòa Lạc rộng cỡ nào ạ</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Campus Hòa Lạc hiện có diện tích đi vào sử dụng là 14ha, với khuôn viên gồm 4 tòa nhà Giảng đường, 8 Ký túc xá, 3 sân bóng đá, 1 sân street workout, 1 sân 
-đa năng, nhà tập Vovinam, sân băng, sân bóng rổ, sân bóng chuyền,…kèm hệ thống cây xanh phủ kín khuôn viên</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Campus Hòa Lạc hiện có diện tích đi vào sử dụng là 14ha, với khuôn viên gồm 4 tòa nhà Giảng đường, 8 Ký túc xá, 3 sân bóng đá, 1 sân street workout, 1 sân 
-đa năng, nhà tập Vovinam, sân băng, sân bóng rổ, sân bóng chuyền,…kèm hệ thống cây xanh phủ kín khuôn viên</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Đúng</t>
-        </is>
-      </c>
-      <c r="E52" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>FPTU Ha Noi chiếm nhiêu ha đất zậy mn ơi?</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Campus Hòa Lạc hiện có diện tích đi vào sử dụng là 14ha, với khuôn viên gồm 4 tòa nhà Giảng đường, 8 Ký túc xá, 3 sân bóng đá, 1 sân street workout, 1 sân 
-đa năng, nhà tập Vovinam, sân băng, sân bóng rổ, sân bóng chuyền,…kèm hệ thống cây xanh phủ kín khuôn viên</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Trong hơn 34 năm, FPT đã xây dựng nhiều phần mềm thương hiệu Việt, hiện đại hóa các ngành kinh tế trọng điểm, hỗ trợ giáo dục thế hệ trẻ theo hướng thực học – thực nghiệp, và tiên phong trong xuất khẩu phần mềm, góp phần đưa trí tuệ Việt ra thế giới.</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Sai</t>
-        </is>
-      </c>
-      <c r="E53" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Nghe nói Hòa Lạc rộng lắm, cụ thể bao nhiêu m² dạ?</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Campus Hòa Lạc hiện có diện tích đi vào sử dụng là 14ha, với khuôn viên gồm 4 tòa nhà Giảng đường, 8 Ký túc xá, 3 sân bóng đá, 1 sân street workout, 1 sân 
-đa năng, nhà tập Vovinam, sân băng, sân bóng rổ, sân bóng chuyền,…kèm hệ thống cây xanh phủ kín khuôn viên</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Campus Hòa Lạc hiện có diện tích đi vào sử dụng là 14ha, với khuôn viên gồm 4 tòa nhà Giảng đường, 8 Ký túc xá, 3 sân bóng đá, 1 sân street workout, 1 sân 
-đa năng, nhà tập Vovinam, sân băng, sân bóng rổ, sân bóng chuyền,…kèm hệ thống cây xanh phủ kín khuôn viên</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Đúng</t>
-        </is>
-      </c>
-      <c r="E54" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Quy mô khuôn viên FPT ở Hòa Lạc hiện nay là bao nhiêu ha quý trường?</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Campus Hòa Lạc hiện có diện tích đi vào sử dụng là 14ha, với khuôn viên gồm 4 tòa nhà Giảng đường, 8 Ký túc xá, 3 sân bóng đá, 1 sân street workout, 1 sân 
-đa năng, nhà tập Vovinam, sân băng, sân bóng rổ, sân bóng chuyền,…kèm hệ thống cây xanh phủ kín khuôn viên</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Học phí Đại học FPT áp dụng theo ngành học, giai đoạn học kỳ và từng cơ sở cụ thể như sau:
 Ngành Ngôn ngữ, Du lịch, Khách sạn, Luật:
@@ -1903,6 +526,1376 @@
  Kỳ 1–3: 15,800,000 đồng/kỳ Kỳ 4–6: 16,800,000 đồng/kỳ Kỳ 7–9: 17,900,000 đồng/kỳ</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Sai</t>
+        </is>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Những quy định nào sinh viên cần tuân thủ khi vào phòng thi?</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sinh viên phải có mặt đúng giờ, xuất trình giấy tờ tùy thân (CMT/CCCD/giấy phép lái xe), tuân thủ yêu cầu giám thị, chỉ mang vật dụng được phép, không mang thiết bị truyền tin,
+không dùng tài khoản người khác đăng nhập hệ thống thi, nghiêm cấm mọi hành vi gian lận trong lúc làm bài thi, Nếu hỏi giám thị điều gì phải hỏi công khai, sinh viên 
+chỉ được ra khỏi phòng thi và khu vuẹc thi khi được giám thị cho phép, sớm nhất là sau 2/3 thời gian làm bài từ trường hợp ốm đau cần cấp cứu</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Sinh viên phải có mặt đúng giờ, xuất trình giấy tờ tùy thân (CMT/CCCD/giấy phép lái xe), tuân thủ yêu cầu giám thị, chỉ mang vật dụng được phép, không mang thiết bị truyền tin,
+không dùng tài khoản người khác đăng nhập hệ thống thi, nghiêm cấm mọi hành vi gian lận trong lúc làm bài thi, Nếu hỏi giám thị điều gì phải hỏi công khai, sinh viên 
+chỉ được ra khỏi phòng thi và khu vuẹc thi khi được giám thị cho phép, sớm nhất là sau 2/3 thời gian làm bài từ trường hợp ốm đau cần cấp cứu</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Đúng</t>
+        </is>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Sinh viên cần tuân thủ yêu-cầu-nào-khi-vào-phòng-thi?</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sinh viên phải có mặt đúng giờ, xuất trình giấy tờ tùy thân (CMT/CCCD/giấy phép lái xe), tuân thủ yêu cầu giám thị, chỉ mang vật dụng được phép, không mang thiết bị truyền tin,
+không dùng tài khoản người khác đăng nhập hệ thống thi, nghiêm cấm mọi hành vi gian lận trong lúc làm bài thi, Nếu hỏi giám thị điều gì phải hỏi công khai, sinh viên 
+chỉ được ra khỏi phòng thi và khu vuẹc thi khi được giám thị cho phép, sớm nhất là sau 2/3 thời gian làm bài từ trường hợp ốm đau cần cấp cứu</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Sinh viên phải có mặt đúng giờ, xuất trình giấy tờ tùy thân (CMT/CCCD/giấy phép lái xe), tuân thủ yêu cầu giám thị, chỉ mang vật dụng được phép, không mang thiết bị truyền tin,
+không dùng tài khoản người khác đăng nhập hệ thống thi, nghiêm cấm mọi hành vi gian lận trong lúc làm bài thi, Nếu hỏi giám thị điều gì phải hỏi công khai, sinh viên 
+chỉ được ra khỏi phòng thi và khu vuẹc thi khi được giám thị cho phép, sớm nhất là sau 2/3 thời gian làm bài từ trường hợp ốm đau cần cấp cứu</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Đúng</t>
+        </is>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>SV cần đáp ứng mấy yêu cầu trước lúc vào phòng thi vậy?</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sinh viên phải có mặt đúng giờ, xuất trình giấy tờ tùy thân (CMT/CCCD/giấy phép lái xe), tuân thủ yêu cầu giám thị, chỉ mang vật dụng được phép, không mang thiết bị truyền tin,
+không dùng tài khoản người khác đăng nhập hệ thống thi, nghiêm cấm mọi hành vi gian lận trong lúc làm bài thi, Nếu hỏi giám thị điều gì phải hỏi công khai, sinh viên 
+chỉ được ra khỏi phòng thi và khu vuẹc thi khi được giám thị cho phép, sớm nhất là sau 2/3 thời gian làm bài từ trường hợp ốm đau cần cấp cứu</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Sinh viên phải có mặt đúng giờ, xuất trình giấy tờ tùy thân (CMT/CCCD/giấy phép lái xe), tuân thủ yêu cầu giám thị, chỉ mang vật dụng được phép, không mang thiết bị truyền tin,
+không dùng tài khoản người khác đăng nhập hệ thống thi, nghiêm cấm mọi hành vi gian lận trong lúc làm bài thi, Nếu hỏi giám thị điều gì phải hỏi công khai, sinh viên 
+chỉ được ra khỏi phòng thi và khu vuẹc thi khi được giám thị cho phép, sớm nhất là sau 2/3 thời gian làm bài từ trường hợp ốm đau cần cấp cứu</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Đúng</t>
+        </is>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Các yêu cầu sinh viên phải thực hiện, khi vào phòng thi, là chi?</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sinh viên phải có mặt đúng giờ, xuất trình giấy tờ tùy thân (CMT/CCCD/giấy phép lái xe), tuân thủ yêu cầu giám thị, chỉ mang vật dụng được phép, không mang thiết bị truyền tin,
+không dùng tài khoản người khác đăng nhập hệ thống thi, nghiêm cấm mọi hành vi gian lận trong lúc làm bài thi, Nếu hỏi giám thị điều gì phải hỏi công khai, sinh viên 
+chỉ được ra khỏi phòng thi và khu vuẹc thi khi được giám thị cho phép, sớm nhất là sau 2/3 thời gian làm bài từ trường hợp ốm đau cần cấp cứu</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Sinh viên phải có mặt đúng giờ, xuất trình giấy tờ tùy thân (CMT/CCCD/giấy phép lái xe), tuân thủ yêu cầu giám thị, chỉ mang vật dụng được phép, không mang thiết bị truyền tin,
+không dùng tài khoản người khác đăng nhập hệ thống thi, nghiêm cấm mọi hành vi gian lận trong lúc làm bài thi, Nếu hỏi giám thị điều gì phải hỏi công khai, sinh viên 
+chỉ được ra khỏi phòng thi và khu vuẹc thi khi được giám thị cho phép, sớm nhất là sau 2/3 thời gian làm bài từ trường hợp ốm đau cần cấp cứu</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Đúng</t>
+        </is>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Sinh viên trễ bao nhiêu phút thì không được vào thi?</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sinh viên đến muộn quá 5 phút sau giờ thi chính thức không được dự thi và bị tính mất lượt thi.</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Sinh viên đến muộn quá 5 phút sau giờ thi chính thức không được dự thi và bị tính mất lượt thi.</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Đúng</t>
+        </is>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Đi muộn mấy phút là không được thi nữa?</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sinh viên đến muộn quá 5 phút sau giờ thi chính thức không được dự thi và bị tính mất lượt thi.</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Sinh viên đến muộn quá 5 phút sau giờ thi chính thức không được dự thi và bị tính mất lượt thi.</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Đúng</t>
+        </is>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Sinh viên đi trễ bn lâu thì k đc thi?</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Sinh viên đến muộn quá 5 phút sau giờ thi chính thức không được dự thi và bị tính mất lượt thi.</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Sinh viên đến muộn quá 5 phút sau giờ thi chính thức không được dự thi và bị tính mất lượt thi.</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Đúng</t>
+        </is>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Sinh viên muộn &gt;15 phút thì có thi được không?</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Sinh viên đến muộn quá 5 phút sau giờ thi chính thức không được dự thi và bị tính mất lượt thi.</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Sinh viên đến muộn quá 5 phút sau giờ thi chính thức không được dự thi và bị tính mất lượt thi.</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Đúng</t>
+        </is>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>SV đến trễ quá mấy phút là rớt quyền thi?</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Sinh viên đến muộn quá 5 phút sau giờ thi chính thức không được dự thi và bị tính mất lượt thi.</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Sinh viên đến muộn quá 5 phút sau giờ thi chính thức không được dự thi và bị tính mất lượt thi.</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Đúng</t>
+        </is>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Những hành vi nào SV tuyệt đối ko dc làm trong phòng thi?</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Nhìn bài bạn, trao đổi, gian lận, mang thiết bị truyền tin, sử dụng phần mềm ngoài phần mềm thi, sao chép đề, mang đề ra ngoài,
+mang vũ khí, chất cấm, kết nối mạng trái phép, nhận bài từ ngoài, sử dụng AI không khai báo.</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Nhìn bài bạn, trao đổi, gian lận, mang thiết bị truyền tin, sử dụng phần mềm ngoài phần mềm thi, sao chép đề, mang đề ra ngoài, mang vũ khí, chất cấm, 
+kết nối mạng trái phép, nhận bài từ ngoài, sử dụng AI không khai báo.</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Sai</t>
+        </is>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Những điều cấm khi thi là gì?</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Nhìn bài bạn, trao đổi, gian lận, mang thiết bị truyền tin, sử dụng phần mềm ngoài phần mềm thi, sao chép đề, mang đề ra ngoài, 
+mang vũ khí, chất cấm, kết nối mạng trái phép, nhận bài từ ngoài, sử dụng AI không khai báo.</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Sinh viên sẽ bị cảnh cáo, đình chỉ thi, đình chỉ học tập 1 học kỳ, buộc thôi học, hoặc giao cơ quan công an xử lý nếu vi phạm pháp luật.</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Sai</t>
+        </is>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Ai vi phạm kỳ thi thì có thể bị xử lý như thế nào?</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Sinh viên sẽ bị cảnh cáo, đình chỉ thi, đình chỉ học tập 1 học kỳ, buộc thôi học, hoặc giao cơ quan công an xử lý nếu vi phạm pháp luật.</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Tùy vào tính chất và mức độ vi phạm, Trường, Ban Đào tạo sẽ áp dụng hình thức xử lý phù hợp trong các hình thức kỷ luật bao gồm: cảnh cáo, đình chỉ thi, 
+đình chỉ học tập, buộc thôi học.</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Sai</t>
+        </is>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Các mức phạt cho hành vi vi phạm quy chế thi?</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Sinh viên sẽ bị cảnh cáo, đình chỉ thi, đình chỉ học tập 1 học kỳ, buộc thôi học, hoặc giao cơ quan công an xử lý nếu vi phạm pháp luật.</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Sinh viên sẽ bị cảnh cáo, đình chỉ thi, đình chỉ học tập 1 học kỳ, buộc thôi học, hoặc giao cơ quan công an xử lý nếu vi phạm pháp luật.</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Đúng</t>
+        </is>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Trao đổi, nhìn bài trong giờ thi có bị phạt không?</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Lần đầu sinh viên bị cảnh cáo do Ban Đào tạo xử lý; lần thứ hai bị đình chỉ thi do Ban Đào tạo xử lý.</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Sinh viên chỉ được ra khỏi phòng thi và khu vực thi khi được giám thị cho phép, sớm nhất là 2/3 thời gian làm bài trừ trường hợp ốm đau cần cấp cứu.</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Sai</t>
+        </is>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>SV mà trao đổi bài là đi luôn đúng không?</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Lần đầu sinh viên bị cảnh cáo do Ban Đào tạo xử lý; lần thứ hai bị đình chỉ thi do Ban Đào tạo xử lý.</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Lần đầu sinh viên bị đình chỉ thi do Ban Đào tạo xử lý</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Sai</t>
+        </is>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Thi giấy mà nói chuyện không đúng đề là vi phạm gì?</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Lần đầu sinh viên bị cảnh cáo do Ban Đào tạo xử lý; lần thứ hai bị đình chỉ thi do Ban Đào tạo xử lý.</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Sinh viên sẽ bị cảnh cáo, đình chỉ thi, đình chỉ học tập 1 học kỳ, buộc thôi học, hoặc giao cơ quan công an xử lý nếu vi phạm pháp luật.</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Sai</t>
+        </is>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>SV bị sao nếu nói chuyện khi làm bài thi giấy mà không liên quan nội dung?</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Lần đầu sinh viên bị cảnh cáo do Ban Đào tạo xử lý; lần thứ hai bị đình chỉ thi do Ban Đào tạo xử lý.</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Lần đầu sinh viên bị cảnh cáo do Ban Đào tạo xử lý; lần thứ hai bị đình chỉ thi do Ban Đào tạo xử lý.</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Đúng</t>
+        </is>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Sinh viên thi giấy mà nói chuyện ngoài lề thì bị sao?</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Lần đầu sinh viên bị cảnh cáo do Ban Đào tạo xử lý; lần thứ hai bị đình chỉ thi do Ban Đào tạo xử lý.</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Lần đầu sinh viên bị cảnh cáo do Ban Đào tạo xử lý; lần thứ hai bị đình chỉ thi do Ban Đào tạo xử lý.</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Đúng</t>
+        </is>
+      </c>
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Bao nhiêu tiền cho 1 TC?</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Học phí 1 tín chỉ: FPTU Hà Nội, TP. Hồ Chí Minh: 1.840.000 VNĐ/tín chỉ; FPTU Đà Nẵng, Bình Định, Cần Thơ: 1.290.000 VNĐ/tín chỉ.</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Học phí kỳ định hướng: Hà Nội/HCM 13,100,000 đồng; Đà Nẵng/Cần Thơ 9,170,000 đồng; Bình Định 6,550,000 đồng. Học phí tiếng Anh chuẩn bị: 
+Hà Nội/HCM 13,100,000 đồng;  Đà Nẵng/Cần Thơ 9,170,000 đồng; Bình Định 6,550,000 đồng.</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Sai</t>
+        </is>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Anh/chị cho em hỏi 1 tín chỉ mất bao nhiêu tiền ạ?</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Học phí 1 tín chỉ: FPTU Hà Nội, TP. Hồ Chí Minh: 1.840.000 VNĐ/tín chỉ; FPTU Đà Nẵng, Bình Định, Cần Thơ: 1.290.000 VNĐ/tín chỉ.</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Học phí ngành Ngôn ngữ Anh tại cơ sở Cần Thơ như sau: Kỳ 1–3: 15,480,000 đồng/kỳ, Kỳ 4–6: 16,460,000 đồng/kỳ, Kỳ 7–9: 17,540,000 đồng/kỳ</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Sai</t>
+        </is>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Bao tiền cho 1 TC z mày</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Học phí 1 tín chỉ: FPTU Hà Nội, TP. Hồ Chí Minh: 1.840.000 VNĐ/tín chỉ; FPTU Đà Nẵng, Bình Định, Cần Thơ: 1.290.000 VNĐ/tín chỉ.</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Học phí kỳ định hướng tại TP. Hồ Chí Minh 13,100,000 đồng.</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Sai</t>
+        </is>
+      </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Ở FPTU, 1 tín chỉ học phí bao nhiêu?</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Học phí 1 tín chỉ: FPTU Hà Nội, TP. Hồ Chí Minh: 1.840.000 VNĐ/tín chỉ; FPTU Đà Nẵng, Bình Định, Cần Thơ: 1.290.000 VNĐ/tín chỉ.</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Học phí ngành Chuyển đổi số tại cơ sở Hà Nội: Kỳ 1–3: 31,600,000 đồng/kỳ, Kỳ 4–6: 33,600,000 đồng/kỳ, Kỳ 7–9: 35,800,000 đồng/kỳ; tại cơ sở TP. Hồ Chí Minh: Kỳ 1–3: 31,600,000 đồng/kỳ, Kỳ 4–6: 33,600,000 đồng/kỳ, Kỳ 7–9: 35,800,000 đồng/kỳ; tại cơ sở Đà Nẵng: Kỳ 1–3: 22,120,000 đồng/kỳ, Kỳ 4–6: 23,520,000 đồng/kỳ, Kỳ 7–9: 25,060,000 đồng/kỳ; tại cơ sở Cần Thơ: Kỳ 1–3: 22,120,000 đồng/kỳ, Kỳ 4–6: 23,520,000 đồng/kỳ, Kỳ 7–9: 25,060,000 đồng/kỳ; tại cơ sở Bình Định: Kỳ 1–3: 15,800,000 đồng/kỳ, Kỳ 4–6: 16,800,000 đồng/kỳ, Kỳ 7–9: 17,900,000 đồng/kỳ</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Sai</t>
+        </is>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Học phí một tín chỉ chương trình chính quy là bao nhiêu?</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Học phí 1 tín chỉ: FPTU Hà Nội, TP. Hồ Chí Minh: 1.840.000 VNĐ/tín chỉ; FPTU Đà Nẵng, Bình Định, Cần Thơ: 1.290.000 VNĐ/tín chỉ.</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Để biết cụ thể khoản nộp học phí một học kỳ, bạn vui lòng tham khảo quy định tài chính dành cho sinh viên qua link tài liệu sau:
+- Đối với sinh viên từ K20 trở về trước, học phí hiện đang áp dụng theo: https://drive.google.com/file/d/1DcqY4fX3jBQEM5gj08fbLDrDjh7hCEvY/view
+Đối với sinh viên K21 học phí sẽ áp dụng theo quy định: https://drive.google.com/file/d/1c9ri1qzrJMrAu8vFZLIPN4mUaLW6bG6k/view
+- Lưu ý:
+Nếu sinh viên chuyển ngành mà phải chuyển khóa học thì sẽ nộp học phí theo biểu phí của khóa học chuyển đến.
+Học phí của sinh viên sẽ bằng mức học phí theo quy định tài chính trừ đi học bổng hoặc ưu đãi (nếu có).</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Sai</t>
+        </is>
+      </c>
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Một tín chỉ tính bao nhiêu vậy ta?</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Học phí 1 tín chỉ: FPTU Hà Nội, TP. Hồ Chí Minh: 1.840.000 VNĐ/tín chỉ; FPTU Đà Nẵng, Bình Định, Cần Thơ: 1.290.000 VNĐ/tín chỉ.</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Nếu tổng số tín chỉ học lại của em vượt quá 5% tổng số tín chỉ toàn chương trình, thì hạng tốt nghiệp sẽ bị giảm một mức. Quy định này áp dụng cho sinh viên từ khóa 17 trở đi.</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Sai</t>
+        </is>
+      </c>
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>1 tín chỉ 950k hả bạn?</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Học phí 1 tín chỉ: FPTU Hà Nội, TP. Hồ Chí Minh: 1.840.000 VNĐ/tín chỉ; FPTU Đà Nẵng, Bình Định, Cần Thơ: 1.290.000 VNĐ/tín chỉ.</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Học phí 1 tín chỉ: FPTU Hà Nội, TP. Hồ Chí Minh: 1.840.000 VNĐ/tín chỉ; FPTU Đà Nẵng, Bình Định, Cần Thơ: 1.290.000 VNĐ/tín chỉ.</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Đúng</t>
+        </is>
+      </c>
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Học phí mỗi học kỳ cho 1 tín chỉ là bao nhiêu?</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Học phí 1 tín chỉ: FPTU Hà Nội, TP. Hồ Chí Minh: 1.840.000 VNĐ/tín chỉ; FPTU Đà Nẵng, Bình Định, Cần Thơ: 1.290.000 VNĐ/tín chỉ.</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Học phí 1 tín chỉ: FPTU Hà Nội, TP. Hồ Chí Minh: 1.840.000 VNĐ/tín chỉ; FPTU Đà Nẵng, Bình Định, Cần Thơ: 1.290.000 VNĐ/tín chỉ.</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Đúng</t>
+        </is>
+      </c>
+      <c r="E29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Bây giờ 1 tín chỉ bao nhiêu, có tăng không?</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Học phí 1 tín chỉ: FPTU Hà Nội, TP. Hồ Chí Minh: 1.840.000 VNĐ/tín chỉ; FPTU Đà Nẵng, Bình Định, Cần Thơ: 1.290.000 VNĐ/tín chỉ.</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Học phí 1 tín chỉ: FPTU Hà Nội, TP. Hồ Chí Minh: 1.840.000 VNĐ/tín chỉ; FPTU Đà Nẵng, Bình Định, Cần Thơ: 1.290.000 VNĐ/tín chỉ.</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Đúng</t>
+        </is>
+      </c>
+      <c r="E30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Xin vui lòng cho tôi biết mức học phí áp dụng cho một (01) tín chỉ là bao nhiêu đồng?</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Học phí 1 tín chỉ: FPTU Hà Nội, TP. Hồ Chí Minh: 1.840.000 VNĐ/tín chỉ; FPTU Đà Nẵng, Bình Định, Cần Thơ: 1.290.000 VNĐ/tín chỉ.</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Học phí 1 tín chỉ: FPTU Hà Nội, TP. Hồ Chí Minh: 1.840.000 VNĐ/tín chỉ; FPTU Đà Nẵng, Bình Định, Cần Thơ: 1.290.000 VNĐ/tín chỉ.</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Đúng</t>
+        </is>
+      </c>
+      <c r="E31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>HP 1 TC = ?</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Học phí 1 tín chỉ: FPTU Hà Nội, TP. Hồ Chí Minh: 1.840.000 VNĐ/tín chỉ; FPTU Đà Nẵng, Bình Định, Cần Thơ: 1.290.000 VNĐ/tín chỉ.</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Học phí 1 tín chỉ: FPTU Hà Nội, TP. Hồ Chí Minh: 1.840.000 VNĐ/tín chỉ; FPTU Đà Nẵng, Bình Định, Cần Thơ: 1.290.000 VNĐ/tín chỉ.</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Đúng</t>
+        </is>
+      </c>
+      <c r="E32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Không pass MCO201m, chuyển qua học MCO201c được không ạ?</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Có thể, MCO201c tương đương với MCO201m trong ngành BBA_MC.</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Có thể, MCO201c tương đương với MCO201m trong ngành BBA_MC.</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Đúng</t>
+        </is>
+      </c>
+      <c r="E33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>MCO201m không đậu, nhà trường có cho chuyển sang MCO201c học không?</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Có thể, MCO201c tương đương với MCO201m trong ngành BBA_MC.</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Nhà trường triển khai học online đối với một số môn học online trên nền tảng Coursera (các môn học có mã môn kết thúc bằng “c”: SSL101c; PMG201…), các môn học còn lại đều được triển khai học offline 100%.</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Sai</t>
+        </is>
+      </c>
+      <c r="E34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>MCO201m fail rồi, học MCO201c = pass được hok?</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Có thể, MCO201c tương đương với MCO201m trong ngành BBA_MC.</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Có thể, MCO201c tương đương với MCO201m trong ngành BBA_MC.</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Đúng</t>
+        </is>
+      </c>
+      <c r="E35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>MCO201c hoc thay MCO201m duoc khong vay?</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Có thể, MCO201c tương đương với MCO201m trong ngành BBA_MC.</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Có thể, MCO201c tương đương với MCO201m trong ngành BBA_MC.</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Đúng</t>
+        </is>
+      </c>
+      <c r="E36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Em cần đáp ứng điều kiện gì để được đi thực tập?</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Sinh viên phải hoàn thành ít nhất 90% tín chỉ chuyên môn trước OJT/ on job training / thực tập.</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Không em nhé. Sinh viên chỉ được thi cuối kỳ nếu đáp ứng đầy đủ điều kiện trong đề cương học phần và yêu cầu đặc thù của bộ môn.</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Sai</t>
+        </is>
+      </c>
+      <c r="E37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Những ai đủ điều kiện đi thực tập OJT?</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Sinh viên phải hoàn thành ít nhất 90% tín chỉ chuyên môn trước OJT/ on job training / thực tập.</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Sinh viên không đủ điều kiện đi OJT/ on job training/ thực tập sẽ được đưa vào diện tạm ngưng bắt buộc để học lại và không cần làm thủ tục tạm hoãn tiến độ một học kỳ để học lại. Sinh viên sẽ không phải nộp học phí của kỳ tiếp theo mà sẽ chỉ cần đăng ký học lại hoặc học chậm kỳ (nếu có).
+Trường hợp sinh viên thuộc diện tạm ngưng bắt buộc nhưng không đăng ký học lại sẽ bị đưa vào danh sách thôi học tự nguyện.</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Sai</t>
+        </is>
+      </c>
+      <c r="E38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>dk di ojt la gi???</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Sinh viên phải hoàn thành ít nhất 90% tín chỉ chuyên môn trước OJT/ on job training / thực tập.</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>OJT là viết tắt của On the Job Training, đây là một giai đoạn học tập, trải nghiệm thực tế tại doanh nghiệp bắt buộc cho tất cả sinh viên Đại học FPT.
+Sinh viên sẽ tham gia OJT theo sự sắp xếp của nhà trường</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Sai</t>
+        </is>
+      </c>
+      <c r="E39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Gửi giúp em thông tin điều kiện OJT với</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Sinh viên phải hoàn thành ít nhất 90% tín chỉ chuyên môn trước OJT/ on job training / thực tập.</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Em theo dõi thông báo trên app myFPT và email sinh viên nhé.</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Sai</t>
+        </is>
+      </c>
+      <c r="E40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>So với năm trước, điều kiện đi OJT có khác gì không?</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Sinh viên phải hoàn thành ít nhất 90% tín chỉ chuyên môn trước OJT/ on job training / thực tập.</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>- Hoàn thành tối thiểu 90% tổng số tín chỉ của các học phần chuyên môn (không bao gồm Giáo giục quốc phòng, Giáo dục thể chất) được nhà trường quy định trong giai đoạn trước OJT/ on job training/ thực tập của chương trình giáo dục đại học theo ngành được đào tạo, tương đương với không nợ quá 2 môn (mỗi môn 3 tín chỉ).
+- Riêng với sinh viên chuyên ngành hẹp JS cần phải pass JPD133
+Tài liệu tham khảo: https://drive.google.com/file/d/15eqz7PEcShvSdcQhqlcEhOzl3HpDJ07E/view , trang 4</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Sai</t>
+        </is>
+      </c>
+      <c r="E41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Muốn di thuc tap thì phai dap ung dieu kien gi?</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Sinh viên phải hoàn thành ít nhất 90% tín chỉ chuyên môn trước OJT/ on job training / thực tập.</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Em truy cập vào hệ thống môn FIN303 tại http://flm.fpt.edu.vn =&gt; View Syllabus =&gt; nhập mã môn FIN303 để xem thông tin chi tiết và cập nhật tài liệu học.</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Sai</t>
+        </is>
+      </c>
+      <c r="E42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>E tính học D.Marketing ở FPT SG, học phí tnao vậy mn?</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Học phí ngành Digital Marketing tại cơ sở TP. Hồ Chí Minh như sau: Kỳ 1–3: 31,600,000 đồng/kỳ, Kỳ 4–6: 33,600,000 đồng/kỳ,
+ Kỳ 7–9: 35,800,000 đồng/kỳ</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Học phí ngành Digital Marketing tại cơ sở Hà Nội: Kỳ 1–3: 31,600,000 đồng/kỳ, Kỳ 4–6: 33,600,000 đồng/kỳ, Kỳ 7–9: 35,800,000 đồng/kỳ; tại cơ sở TP. Hồ Chí Minh: Kỳ 1–3: 31,600,000 đồng/kỳ, Kỳ 4–6: 33,600,000 đồng/kỳ, Kỳ 7–9: 35,800,000 đồng/kỳ; tại cơ sở Đà Nẵng: Kỳ 1–3: 22,120,000 đồng/kỳ, Kỳ 4–6: 23,520,000 đồng/kỳ, Kỳ 7–9: 25,060,000 đồng/kỳ; tại cơ sở Cần Thơ: Kỳ 1–3: 22,120,000 đồng/kỳ, Kỳ 4–6: 23,520,000 đồng/kỳ, Kỳ 7–9: 25,060,000 đồng/kỳ; tại cơ sở Bình Định: Kỳ 1–3: 15,800,000 đồng/kỳ, Kỳ 4–6: 16,800,000 đồng/kỳ, Kỳ 7–9: 17,900,000 đồng/kỳ</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Sai</t>
+        </is>
+      </c>
+      <c r="E43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Hỏi nhẹ: học phí FPT ngành Digimar cơ sở SG bh vậy?</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Học phí ngành Digital Marketing tại cơ sở TP. Hồ Chí Minh như sau: Kỳ 1–3: 31,600,000 đồng/kỳ, Kỳ 4–6: 33,600,000 đồng/kỳ, 
+Kỳ 7–9: 35,800,000 đồng/kỳ</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Học phí ngành Trí tuệ nhân tạo tại cơ sở Hà Nội như sau: Kỳ 1–3: 31,600,000 đồng/kỳ, Kỳ 4–6: 33,600,000 đồng/kỳ, Kỳ 7–9: 35,800,000 đồng/kỳ</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Sai</t>
+        </is>
+      </c>
+      <c r="E44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Ngành Tiếp thị Kỹ thuật số ở FPT TP.HCM học phí bao nhiêu thế?</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Học phí ngành Digital Marketing tại cơ sở TP. Hồ Chí Minh như sau: Kỳ 1–3: 31,600,000 đồng/kỳ, Kỳ 4–6: 33,600,000 đồng/kỳ,
+ Kỳ 7–9: 35,800,000 đồng/kỳ</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Học phí ngành Thiết kế mỹ thuật số tại cơ sở TP. Hồ Chí Minh như sau: Kỳ 1–3: 31,600,000 đồng/kỳ, Kỳ 4–6: 33,600,000 đồng/kỳ, Kỳ 7–9: 35,800,000 đồng/kỳ</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Sai</t>
+        </is>
+      </c>
+      <c r="E45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Học Digital Marketing trong đó (TP.HCM) thì học phí có mắc hông ạ?</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Học phí ngành Digital Marketing tại cơ sở TP. Hồ Chí Minh như sau: Kỳ 1–3: 31,600,000 đồng/kỳ, Kỳ 4–6: 33,600,000 đồng/kỳ,
+ Kỳ 7–9: 35,800,000 đồng/kỳ</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Học phí ngành Digital Marketing tại cơ sở TP. Hồ Chí Minh như sau: Kỳ 1–3: 31,600,000 đồng/kỳ, Kỳ 4–6: 33,600,000 đồng/kỳ, Kỳ 7–9: 35,800,000 đồng/kỳ</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Sai</t>
+        </is>
+      </c>
+      <c r="E46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Đu học ngành Digi tại FPT SG thì mất nhiu xiền ạaa</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Học phí ngành Digital Marketing tại cơ sở TP. Hồ Chí Minh như sau: Kỳ 1–3: 31,600,000 đồng/kỳ, Kỳ 4–6: 33,600,000 đồng/kỳ,
+ Kỳ 7–9: 35,800,000 đồng/kỳ</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Học phí ngành Digital Marketing tại cơ sở Hà Nội: Kỳ 1–3: 31,600,000 đồng/kỳ, Kỳ 4–6: 33,600,000 đồng/kỳ, Kỳ 7–9: 35,800,000 đồng/kỳ; tại cơ sở TP. Hồ Chí Minh: Kỳ 1–3: 31,600,000 đồng/kỳ, Kỳ 4–6: 33,600,000 đồng/kỳ, Kỳ 7–9: 35,800,000 đồng/kỳ; tại cơ sở Đà Nẵng: Kỳ 1–3: 22,120,000 đồng/kỳ, Kỳ 4–6: 23,520,000 đồng/kỳ, Kỳ 7–9: 25,060,000 đồng/kỳ; tại cơ sở Cần Thơ: Kỳ 1–3: 22,120,000 đồng/kỳ, Kỳ 4–6: 23,520,000 đồng/kỳ, Kỳ 7–9: 25,060,000 đồng/kỳ; tại cơ sở Bình Định: Kỳ 1–3: 15,800,000 đồng/kỳ, Kỳ 4–6: 16,800,000 đồng/kỳ, Kỳ 7–9: 17,900,000 đồng/kỳ</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Sai</t>
+        </is>
+      </c>
+      <c r="E47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Bot cho em biết học phí dmark ở FPT TP.HCM đi, em chuẩn bị bán thận nèee</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Học phí ngành Digital Marketing tại cơ sở TP. Hồ Chí Minh như sau: Kỳ 1–3: 31,600,000 đồng/kỳ, Kỳ 4–6: 33,600,000 đồng/kỳ, 
+Kỳ 7–9: 35,800,000 đồng/kỳ</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Học phí ngành Chuyển đổi số tại cơ sở TP. Hồ Chí Minh như sau: Kỳ 1–3: 31,600,000 đồng/kỳ, Kỳ 4–6: 33,600,000 đồng/kỳ, Kỳ 7–9: 35,800,000 đồng/kỳ</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Sai</t>
+        </is>
+      </c>
+      <c r="E48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Những điều sinh viên cần phải tuân theo trong ký túc xá là gì</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Nội quy ký túc xá quy định giờ mở cửa từ 5h00, đóng cửa 22h30; sinh viên phải đăng ký tạm trú, báo vắng nếu đi quá 3 ngày; khách phải đăng ký tại phòng trực,
+không tiếp khách sau 22h30; chỉ được mang thiết bị như tivi, tủ lạnh &lt;110L, quạt, ấm điện (thiết bị khác cần xin phép); sinh viên ở mà không đóng phí đúng hạn
+có thể bị ngừng xếp lớp; nghiêm cấm đánh bạc, rượu, ma túy, nuôi thú, nấu ăn trong phòng, tổ chức tiệc sau 22h; không tự ý sửa phòng, gắn thiết bị, phá hoại tài sản;
+phải giữ vệ sinh sạch sẽ, đổ rác đúng nơi, không gây mùi; cấm mang chất cháy nổ, báo cháy giả.</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Sinh viên có trách nhiệm giữ gìn tài sản chung của KTX, sử dụng đúng mục đích và không tự ý di chuyển, tháo lắp hoặc làm hư hại đồ dùng trong phòng ở, hành lang và các khu vực công cộng. Nếu phát hiện thiết bị hỏng hóc, sinh viên cần báo ngay cho ban quản lý KTX để kịp thời sửa chữa.</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Sai</t>
+        </is>
+      </c>
+      <c r="E49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>KTX có luật lệ gì cần nhớ hông Z</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Nội quy ký túc xá quy định giờ mở cửa từ 5h00, đóng cửa 22h30; sinh viên phải đăng ký tạm trú, báo vắng nếu đi quá 3 ngày; khách phải đăng ký tại phòng trực,
+không tiếp khách sau 22h30; chỉ được mang thiết bị như tivi, tủ lạnh &lt;110L, quạt, ấm điện (thiết bị khác cần xin phép); sinh viên ở mà không đóng phí đúng hạn
+có thể bị ngừng xếp lớp; nghiêm cấm đánh bạc, rượu, ma túy, nuôi thú, nấu ăn trong phòng, tổ chức tiệc sau 22h; không tự ý sửa phòng, gắn thiết bị, phá hoại tài sản;
+phải giữ vệ sinh sạch sẽ, đổ rác đúng nơi, không gây mùi; cấm mang chất cháy nổ, báo cháy giả.</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Nếu phát hiện bạn cùng phòng có biểu hiện bất thường về sức khỏe, sinh viên cần thông báo hoặc hỗ trợ đưa người đó đến phòng y tế để được kiểm tra và điều trị.</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Sai</t>
+        </is>
+      </c>
+      <c r="E50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Những điều cấm kỵ trong ký túc xá là gì vậy?</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Nội quy ký túc xá quy định giờ mở cửa từ 5h00, đóng cửa 22h30; sinh viên phải đăng ký tạm trú, báo vắng nếu đi quá 3 ngày; khách phải đăng ký tại phòng trực,
+không tiếp khách sau 22h30; chỉ được mang thiết bị như tivi, tủ lạnh &lt;110L, quạt, ấm điện (thiết bị khác cần xin phép); sinh viên ở mà không đóng phí đúng hạn
+có thể bị ngừng xếp lớp; nghiêm cấm đánh bạc, rượu, ma túy, nuôi thú, nấu ăn trong phòng, tổ chức tiệc sau 22h; không tự ý sửa phòng, gắn thiết bị, phá hoại tài sản;
+phải giữ vệ sinh sạch sẽ, đổ rác đúng nơi, không gây mùi; cấm mang chất cháy nổ, báo cháy giả.</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Sinh viên có trách nhiệm giữ gìn tài sản chung của KTX, sử dụng đúng mục đích và không tự ý di chuyển, tháo lắp hoặc làm hư hại đồ dùng trong phòng ở, hành lang và các khu vực công cộng. Nếu phát hiện thiết bị hỏng hóc, sinh viên cần báo ngay cho ban quản lý KTX để kịp thời sửa chữa.</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Sai</t>
+        </is>
+      </c>
+      <c r="E51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Khuôn viên trường FPT ở Hòa Lạc rộng cỡ nào ạ</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Campus Hòa Lạc hiện có diện tích đi vào sử dụng là 14ha, với khuôn viên gồm 4 tòa nhà Giảng đường, 8 Ký túc xá, 3 sân bóng đá, 1 sân street workout, 1 sân 
+đa năng, nhà tập Vovinam, sân băng, sân bóng rổ, sân bóng chuyền,…kèm hệ thống cây xanh phủ kín khuôn viên</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Campus Hòa Lạc hiện có diện tích đi vào sử dụng là 14ha, với khuôn viên gồm 4 tòa nhà Giảng đường, 8 Ký túc xá, 3 sân bóng đá, 1 sân street workout, 1 sân 
+đa năng, nhà tập Vovinam, sân băng, sân bóng rổ, sân bóng chuyền,…kèm hệ thống cây xanh phủ kín khuôn viên</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Đúng</t>
+        </is>
+      </c>
+      <c r="E52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>FPTU Ha Noi chiếm nhiêu ha đất zậy mn ơi?</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Campus Hòa Lạc hiện có diện tích đi vào sử dụng là 14ha, với khuôn viên gồm 4 tòa nhà Giảng đường, 8 Ký túc xá, 3 sân bóng đá, 1 sân street workout, 1 sân 
+đa năng, nhà tập Vovinam, sân băng, sân bóng rổ, sân bóng chuyền,…kèm hệ thống cây xanh phủ kín khuôn viên</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>- Học phí của Trường Đại học FPT được phân biệt theo từng campus và từng khóa học, chia theo giai đoạn. Cụ thể:
+- Đối với giai đoạn học Tiếng Anh dự bị, học phí sẽ được thu theo từng mức Tiếng Anh.
+- Đối với giai đoạn học chuyên ngành, học phí sẽ được thu theo kỳ.
+- Trong trường hợp tổ chức học song song Tiếng Anh dự bị và kỳ học chuyên ngành, Nhà trường sẽ thu cùng lúc 2 khoản học phí Tiếng Anh dự bị và học phí chuyên ngành.
+- Học phí thực nộp sẽ bằng mức học phí theo quy định trừ đi học bổng hoặc ưu đãi (nếu có). Số tiền học phí cụ thể được ghi trong https://drive.google.com/file/d/1c9ri1qzrJMrAu8vFZLIPN4mUaLW6bG6k/view
+- Sinh viên cần hoàn thành học phí trước khi học kỳ mới bắt đầu và theo đúng thời hạn được Nhà trường thông báo.</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Sai</t>
+        </is>
+      </c>
+      <c r="E53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Nghe nói Hòa Lạc rộng lắm, cụ thể bao nhiêu m² dạ?</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Campus Hòa Lạc hiện có diện tích đi vào sử dụng là 14ha, với khuôn viên gồm 4 tòa nhà Giảng đường, 8 Ký túc xá, 3 sân bóng đá, 1 sân street workout, 1 sân 
+đa năng, nhà tập Vovinam, sân băng, sân bóng rổ, sân bóng chuyền,…kèm hệ thống cây xanh phủ kín khuôn viên</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Campus Hòa Lạc hiện có diện tích đi vào sử dụng là 14ha, với khuôn viên gồm 4 tòa nhà Giảng đường, 8 Ký túc xá, 3 sân bóng đá, 1 sân street workout, 1 sân 
+đa năng, nhà tập Vovinam, sân băng, sân bóng rổ, sân bóng chuyền,…kèm hệ thống cây xanh phủ kín khuôn viên</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Đúng</t>
+        </is>
+      </c>
+      <c r="E54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Quy mô khuôn viên FPT ở Hòa Lạc hiện nay là bao nhiêu ha quý trường?</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Campus Hòa Lạc hiện có diện tích đi vào sử dụng là 14ha, với khuôn viên gồm 4 tòa nhà Giảng đường, 8 Ký túc xá, 3 sân bóng đá, 1 sân street workout, 1 sân 
+đa năng, nhà tập Vovinam, sân băng, sân bóng rổ, sân bóng chuyền,…kèm hệ thống cây xanh phủ kín khuôn viên</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Học phí Đại học FPT áp dụng theo ngành học, giai đoạn học kỳ và từng cơ sở cụ thể như sau:
+Ngành Ngôn ngữ, Du lịch, Khách sạn, Luật:
+- Hà Nội và TP. Hồ Chí Minh:
+ Kỳ 1–3: 22,120,000 đồng/kỳ Kỳ 4–6: 23,520,000 đồng/kỳ Kỳ 7–9: 25,060,000 đồng/kỳ
+- Đà Nẵng và Cần Thơ:
+ Kỳ 1–3: 15,480,000 đồng/kỳ Kỳ 4–6: 16,460,000 đồng/kỳ Kỳ 7–9: 17,540,000 đồng/kỳ
+- Bình Định:
+ Kỳ 1–3: 11,060,000 đồng/kỳ Kỳ 4–6: 11,760,000 đồng/kỳ Kỳ 7–9: 12,530,000 đồng/kỳ
+Các ngành khác (Công nghệ, Kinh tế, Thiết kế,...):
+- Hà Nội và TP. Hồ Chí Minh:
+ Kỳ 1–3: 31,600,000 đồng/kỳ Kỳ 4–6: 33,600,000 đồng/kỳ Kỳ 7–9: 35,800,000 đồng/kỳ
+- Đà Nẵng và Cần Thơ:
+ Kỳ 1–3: 22,120,000 đồng/kỳ Kỳ 4–6: 23,520,000 đồng/kỳ Kỳ 7–9: 25,060,000 đồng/kỳ
+- Bình Định:
+ Kỳ 1–3: 15,800,000 đồng/kỳ Kỳ 4–6: 16,800,000 đồng/kỳ Kỳ 7–9: 17,900,000 đồng/kỳ</t>
+        </is>
+      </c>
       <c r="D55" t="inlineStr">
         <is>
           <t>Sai</t>
@@ -1975,7 +1968,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Em hỏi Phòng Kế toán hoặc Dịch vụ quản lý tài chính sinh viên.</t>
+          <t>Mỗi sinh viên được mượn tối đa 10 bản tài liệu tham khảo; thời gian mượn là 1 tuần với tài liệu tiếng Việt, 2 tuần với tài liệu ngoại văn và có thể gia hạn tối đa 4 lần.</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2396,17 +2389,18 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Học môn LAB cần phải qua môn nào trước không?</t>
+          <t>Phần PE trong môn DBI202 có bắt buộc không?</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Môn LAB211 có yêu cầu học phần tiên quyết là PRO192.</t>
+          <t>Môn DBI202 có bài thi thực hành (Practical Exam) nhằm đánh giá kỹ năng thực tế của sinh viên trong việc thiết kế, triển khai và thao
+ tác với cơ sở dữ liệu sử dụng Microsoft SQL Server.</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Không em nhé, môn này không có môn tiên quyết đâu.</t>
+          <t>Các chuyến field trip là một trong nội dung của các môn học, do vậy có bắt buộc.</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2421,18 +2415,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Phần PE trong môn DBI202 có bắt buộc không?</t>
+          <t>Học môn LAB cần phải qua môn nào trước không?</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Môn DBI202 có bài thi thực hành (Practical Exam) nhằm đánh giá kỹ năng thực tế của sinh viên trong việc thiết kế, triển khai và thao
- tác với cơ sở dữ liệu sử dụng Microsoft SQL Server.</t>
+          <t>Môn LAB211 có yêu cầu học phần tiên quyết là PRO192.</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Các chuyến field trip là một trong nội dung của các môn học, do vậy có bắt buộc.</t>
+          <t>Không em nhé, môn này không có môn tiên quyết đâu.</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2560,7 +2553,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Assignment môn PRN211 chiếm 10.0% tổng điểm.</t>
+          <t>Học phí tiếng anh chuẩn bị tại Cần Thơ 9,170,000 đồng/1 level</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2669,9 +2662,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Theo quy định tài chính, sinh viên đang học tập bình thường sẽ không được rút tiền trên FAP; khoản học phí và các khoản phí dịch vụ còn dư sẽ được bù trừ vào học phí kỳ sau hoặc các dịch vụ phát sinh lần sau. Các khoản dịch vụ này sẽ được quyết toán khi sinh viên tốt nghiệp, thôi học hoặc chuyển cơ sở.
- Trong trường hợp sinh viên thôi học, tốt nghiệp hoặc chuyển cơ sở có thể làm thủ tục rút tiền theo hướng dẫn sau. Truy cập trang =&gt; Mục Send application (Gửi đơn) =&gt; Chọn: Đơn đề nghị rút tiền =&gt; Tải template và điền nội dung vào đơn theo yêu cầu =&gt; Send. Sau khi nộp đơn xong, sinh viên vui lòng đợi xem phản hồi của bộ phận xử lý tại mục View Application (Xem đơn). Thông thường đơn rút tiền được xử lý trong vòng 2 tuần.
- Lưu ý: Hiện nay Nhà trường chỉ trả tiền thừa về tài khoản của phụ huynh, vì vậy trong mẫu Đơn rút tiền, sinh viên cần dán ảnh chụp 2 mặt CMND/CCCD của chủ tài khoản nhận tiền (bố hoặc mẹ), giấy khai sinh của sinh viên (hoặc sổ hộ khẩu gia đình có tên sinh viên và có tên chủ tài khoản nhận tiền) để chứng minh mối quan hệ.</t>
+          <t>Học phí ngành Chuyển đổi số tại cơ sở Hà Nội: Kỳ 1–3: 31,600,000 đồng/kỳ, Kỳ 4–6: 33,600,000 đồng/kỳ, Kỳ 7–9: 35,800,000 đồng/kỳ; tại cơ sở TP. Hồ Chí Minh: Kỳ 1–3: 31,600,000 đồng/kỳ, Kỳ 4–6: 33,600,000 đồng/kỳ, Kỳ 7–9: 35,800,000 đồng/kỳ; tại cơ sở Đà Nẵng: Kỳ 1–3: 22,120,000 đồng/kỳ, Kỳ 4–6: 23,520,000 đồng/kỳ, Kỳ 7–9: 25,060,000 đồng/kỳ; tại cơ sở Cần Thơ: Kỳ 1–3: 22,120,000 đồng/kỳ, Kỳ 4–6: 23,520,000 đồng/kỳ, Kỳ 7–9: 25,060,000 đồng/kỳ; tại cơ sở Bình Định: Kỳ 1–3: 15,800,000 đồng/kỳ, Kỳ 4–6: 16,800,000 đồng/kỳ, Kỳ 7–9: 17,900,000 đồng/kỳ</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2832,8 +2823,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>- Đối với các môn thi có Final Exam, sinh viên sẽ có 2 lần thi. Nếu không đạt trong lần thi thứ nhất, sinh viên sẽ được tự động xếp lịch thi lần 2 mà không cần phải làm đơn (Trừ trường hợp bị đình chỉ thi). Thông tin về lịch thi lần 2 được thông báo trên Cổng thông tin đào tạo FAP mục Information Access (Tra cứu thông tin) =&gt; View exam schedule (Xem lịch thi).
-- Nếu sinh viên không đạt trong lần thi thứ 2 thì sẽ cần phải đăng ký học lại, (ngoại trừ môn Coursera, sinh viên chỉ cần đăng ký thi lại thẩm định trong các học kỳ sau cho đến khi pass môn).</t>
+          <t>Lần đầu sinh viên bị đình chỉ thi và đình chỉ học tập 1 học kỳ; nếu người thi hộ không phải sinh viên sẽ giao cơ quan công an xử lý; lần thứ hai sinh viên bị buộc thôi học</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2983,7 +2973,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Để biết ngành học của mình có những chuyên ngành hẹp/ combo chuyên sâu nào, sinh viên có thể xem thông tin tại trang học liệu: flm.fpt.edu.vn =&gt; View Curriculum =&gt; View Combo</t>
+          <t>Tùy từng chuyên ngành mà sinh viên có thể được Phòng Đào tạo thông báo lựa chọn chuyên ngành hẹp (combo chuyên sâu) trong khoảng thời gian từ kỳ 3 đến kỳ 5 chuyên ngành. Sau khi đã lựa chọn combo, nếu sinh viên muốn đổi sang combo khác sẽ phải làm thủ tục xin chuyển Combo chuyên sâu.</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2998,7 +2988,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Gói chuyên sâu đó đổi được không nhỉ?</t>
+          <t>Cho t hỏi đêi combo chuyên sâu thì pải qua mấy step v?</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3012,6 +3002,26 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
+          <t>Điều kiện để được lên chuyên ngành là sinh viên phải đạt level 6 Tiếng Anh tại Trường hoặc các mức tương đương được Nhà trường công nhận.</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Sai</t>
+        </is>
+      </c>
+      <c r="E96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Gói chuyên sâu đó đổi được không nhỉ?</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
           <t>Sinh viên có thể cân nhắc làm thủ tục đổi Combo chuyên sâu nếu cảm thấy không phù hợp với Combo hiện tại, cụ thể như sau:
  Thời gian đăng ký chuyển combo chuyên sâu: Theo thông báo của phòng Quản lý Đào tạo được đăng trên FAP mục News – Tin tức trước khi học kỳ mới bắt đầu 2 tháng.
  Phí chuyển combo chuyên sâu: 2,300,000 đồng
@@ -3019,22 +3029,7 @@
  Lưu ý: Thời gian giữ chỗ cho SV thanh toán bằng QR code là 10 phút. Nếu thanh toán sau 10 phút thì đơn sẽ bị hủy và tiền SV đã nộp sẽ được cộng vào ví FAP. khi đó sinh viên sẽ phải thao tác đăng ký lại và sử dụng tiền dư trong ví FAP. Sau khi gửi đơn, sinh viên sẽ theo dõi tại mục “View application (Xem đơn)” để nhận phản hồi của bộ phận xử lý. Đối với trường hợp hệ thống có phản hồi về phí thừa môn cần nộp: Sinh viên cần hoàn thành khoản phí này tối đa trong vòng 12 ngày kể từ thời điểm làm đơn. Nếu không hoàn thành đúng hạn, đơn sẽ bị từ chối và phí chuyển ngành cũng sẽ được hoàn về ví FAP. (Phí thừa môn là học phí của các môn học sinh viên đã được học nhưng nằm ngoài khung chương trình hiện tại. Thông thường phí thừa môn có thể xuất hiện khi sinh viên làm thủ tục chuyển ngành, chuyển combo chuyên sâu. Khi đó nếu sinh viên có các học phần đã được học ở khung chương trình cũ nhưng không có trong khung chương trình mới thì sẽ phải nộp phí thừa môn này) Lưu ý: Đối với sinh viên đổi combo sau kỳ 6 chuyên ngành, tùy từng combo cụ thể mà sau khi chuyển sinh viên có thể phải đi OJT lại hoặc không. Các môn học được thay thế trong khung chương trình mới mà sinh viên chưa được học sẽ trở thành môn học chậm kỳ và sinh viên có thể chủ động đăng ký để hoàn thành các môn học này. Sinh viên combo chuyên sâu sẽ được duy trì các loại học bổng, ưu đãi tài năng.</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>Đúng</t>
-        </is>
-      </c>
-      <c r="E96" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>Cho t hỏi đêi combo chuyên sâu thì pải qua mấy step v?</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
+      <c r="C97" t="inlineStr">
         <is>
           <t>Sinh viên có thể cân nhắc làm thủ tục đổi Combo chuyên sâu nếu cảm thấy không phù hợp với Combo hiện tại, cụ thể như sau:
  Thời gian đăng ký chuyển combo chuyên sâu: Theo thông báo của phòng Quản lý Đào tạo được đăng trên FAP mục News – Tin tức trước khi học kỳ mới bắt đầu 2 tháng.
@@ -3043,7 +3038,22 @@
  Lưu ý: Thời gian giữ chỗ cho SV thanh toán bằng QR code là 10 phút. Nếu thanh toán sau 10 phút thì đơn sẽ bị hủy và tiền SV đã nộp sẽ được cộng vào ví FAP. khi đó sinh viên sẽ phải thao tác đăng ký lại và sử dụng tiền dư trong ví FAP. Sau khi gửi đơn, sinh viên sẽ theo dõi tại mục “View application (Xem đơn)” để nhận phản hồi của bộ phận xử lý. Đối với trường hợp hệ thống có phản hồi về phí thừa môn cần nộp: Sinh viên cần hoàn thành khoản phí này tối đa trong vòng 12 ngày kể từ thời điểm làm đơn. Nếu không hoàn thành đúng hạn, đơn sẽ bị từ chối và phí chuyển ngành cũng sẽ được hoàn về ví FAP. (Phí thừa môn là học phí của các môn học sinh viên đã được học nhưng nằm ngoài khung chương trình hiện tại. Thông thường phí thừa môn có thể xuất hiện khi sinh viên làm thủ tục chuyển ngành, chuyển combo chuyên sâu. Khi đó nếu sinh viên có các học phần đã được học ở khung chương trình cũ nhưng không có trong khung chương trình mới thì sẽ phải nộp phí thừa môn này) Lưu ý: Đối với sinh viên đổi combo sau kỳ 6 chuyên ngành, tùy từng combo cụ thể mà sau khi chuyển sinh viên có thể phải đi OJT lại hoặc không. Các môn học được thay thế trong khung chương trình mới mà sinh viên chưa được học sẽ trở thành môn học chậm kỳ và sinh viên có thể chủ động đăng ký để hoàn thành các môn học này. Sinh viên combo chuyên sâu sẽ được duy trì các loại học bổng, ưu đãi tài năng.</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Đúng</t>
+        </is>
+      </c>
+      <c r="E97" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Tao méo biết đổi cái combo chuyên sâu kiểu gì luôn!</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
         <is>
           <t>Sinh viên có thể cân nhắc làm thủ tục đổi Combo chuyên sâu nếu cảm thấy không phù hợp với Combo hiện tại, cụ thể như sau:
  Thời gian đăng ký chuyển combo chuyên sâu: Theo thông báo của phòng Quản lý Đào tạo được đăng trên FAP mục News – Tin tức trước khi học kỳ mới bắt đầu 2 tháng.
@@ -3052,22 +3062,7 @@
  Lưu ý: Thời gian giữ chỗ cho SV thanh toán bằng QR code là 10 phút. Nếu thanh toán sau 10 phút thì đơn sẽ bị hủy và tiền SV đã nộp sẽ được cộng vào ví FAP. khi đó sinh viên sẽ phải thao tác đăng ký lại và sử dụng tiền dư trong ví FAP. Sau khi gửi đơn, sinh viên sẽ theo dõi tại mục “View application (Xem đơn)” để nhận phản hồi của bộ phận xử lý. Đối với trường hợp hệ thống có phản hồi về phí thừa môn cần nộp: Sinh viên cần hoàn thành khoản phí này tối đa trong vòng 12 ngày kể từ thời điểm làm đơn. Nếu không hoàn thành đúng hạn, đơn sẽ bị từ chối và phí chuyển ngành cũng sẽ được hoàn về ví FAP. (Phí thừa môn là học phí của các môn học sinh viên đã được học nhưng nằm ngoài khung chương trình hiện tại. Thông thường phí thừa môn có thể xuất hiện khi sinh viên làm thủ tục chuyển ngành, chuyển combo chuyên sâu. Khi đó nếu sinh viên có các học phần đã được học ở khung chương trình cũ nhưng không có trong khung chương trình mới thì sẽ phải nộp phí thừa môn này) Lưu ý: Đối với sinh viên đổi combo sau kỳ 6 chuyên ngành, tùy từng combo cụ thể mà sau khi chuyển sinh viên có thể phải đi OJT lại hoặc không. Các môn học được thay thế trong khung chương trình mới mà sinh viên chưa được học sẽ trở thành môn học chậm kỳ và sinh viên có thể chủ động đăng ký để hoàn thành các môn học này. Sinh viên combo chuyên sâu sẽ được duy trì các loại học bổng, ưu đãi tài năng.</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>Đúng</t>
-        </is>
-      </c>
-      <c r="E97" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>Tao méo biết đổi cái combo chuyên sâu kiểu gì luôn!</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
+      <c r="C98" t="inlineStr">
         <is>
           <t>Sinh viên có thể cân nhắc làm thủ tục đổi Combo chuyên sâu nếu cảm thấy không phù hợp với Combo hiện tại, cụ thể như sau:
  Thời gian đăng ký chuyển combo chuyên sâu: Theo thông báo của phòng Quản lý Đào tạo được đăng trên FAP mục News – Tin tức trước khi học kỳ mới bắt đầu 2 tháng.
@@ -3076,7 +3071,47 @@
  Lưu ý: Thời gian giữ chỗ cho SV thanh toán bằng QR code là 10 phút. Nếu thanh toán sau 10 phút thì đơn sẽ bị hủy và tiền SV đã nộp sẽ được cộng vào ví FAP. khi đó sinh viên sẽ phải thao tác đăng ký lại và sử dụng tiền dư trong ví FAP. Sau khi gửi đơn, sinh viên sẽ theo dõi tại mục “View application (Xem đơn)” để nhận phản hồi của bộ phận xử lý. Đối với trường hợp hệ thống có phản hồi về phí thừa môn cần nộp: Sinh viên cần hoàn thành khoản phí này tối đa trong vòng 12 ngày kể từ thời điểm làm đơn. Nếu không hoàn thành đúng hạn, đơn sẽ bị từ chối và phí chuyển ngành cũng sẽ được hoàn về ví FAP. (Phí thừa môn là học phí của các môn học sinh viên đã được học nhưng nằm ngoài khung chương trình hiện tại. Thông thường phí thừa môn có thể xuất hiện khi sinh viên làm thủ tục chuyển ngành, chuyển combo chuyên sâu. Khi đó nếu sinh viên có các học phần đã được học ở khung chương trình cũ nhưng không có trong khung chương trình mới thì sẽ phải nộp phí thừa môn này) Lưu ý: Đối với sinh viên đổi combo sau kỳ 6 chuyên ngành, tùy từng combo cụ thể mà sau khi chuyển sinh viên có thể phải đi OJT lại hoặc không. Các môn học được thay thế trong khung chương trình mới mà sinh viên chưa được học sẽ trở thành môn học chậm kỳ và sinh viên có thể chủ động đăng ký để hoàn thành các môn học này. Sinh viên combo chuyên sâu sẽ được duy trì các loại học bổng, ưu đãi tài năng.</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Đúng</t>
+        </is>
+      </c>
+      <c r="E98" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Học MAD101 là học cái chi rứa?</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>MAD101 là môn Toán rời rạc, cung cấp kiến thức nền tảng về logic, tập hợp, thuật toán, đồ thị, cây và đếm trong tin học.</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Môn MAE101 bao gồm logic mệnh đề, đếm, tập hợp, hàm, giải thuật, số nguyên, thuật toán đệ quy, đồ thị, cây, độ phức tạp và ứng dụng.</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Sai</t>
+        </is>
+      </c>
+      <c r="E99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Ck c0mb0 chii3n s4u pải lm s?</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
         <is>
           <t>Sinh viên có thể cân nhắc làm thủ tục đổi Combo chuyên sâu nếu cảm thấy không phù hợp với Combo hiện tại, cụ thể như sau:
  Thời gian đăng ký chuyển combo chuyên sâu: Theo thông báo của phòng Quản lý Đào tạo được đăng trên FAP mục News – Tin tức trước khi học kỳ mới bắt đầu 2 tháng.
@@ -3085,55 +3120,6 @@
  Lưu ý: Thời gian giữ chỗ cho SV thanh toán bằng QR code là 10 phút. Nếu thanh toán sau 10 phút thì đơn sẽ bị hủy và tiền SV đã nộp sẽ được cộng vào ví FAP. khi đó sinh viên sẽ phải thao tác đăng ký lại và sử dụng tiền dư trong ví FAP. Sau khi gửi đơn, sinh viên sẽ theo dõi tại mục “View application (Xem đơn)” để nhận phản hồi của bộ phận xử lý. Đối với trường hợp hệ thống có phản hồi về phí thừa môn cần nộp: Sinh viên cần hoàn thành khoản phí này tối đa trong vòng 12 ngày kể từ thời điểm làm đơn. Nếu không hoàn thành đúng hạn, đơn sẽ bị từ chối và phí chuyển ngành cũng sẽ được hoàn về ví FAP. (Phí thừa môn là học phí của các môn học sinh viên đã được học nhưng nằm ngoài khung chương trình hiện tại. Thông thường phí thừa môn có thể xuất hiện khi sinh viên làm thủ tục chuyển ngành, chuyển combo chuyên sâu. Khi đó nếu sinh viên có các học phần đã được học ở khung chương trình cũ nhưng không có trong khung chương trình mới thì sẽ phải nộp phí thừa môn này) Lưu ý: Đối với sinh viên đổi combo sau kỳ 6 chuyên ngành, tùy từng combo cụ thể mà sau khi chuyển sinh viên có thể phải đi OJT lại hoặc không. Các môn học được thay thế trong khung chương trình mới mà sinh viên chưa được học sẽ trở thành môn học chậm kỳ và sinh viên có thể chủ động đăng ký để hoàn thành các môn học này. Sinh viên combo chuyên sâu sẽ được duy trì các loại học bổng, ưu đãi tài năng.</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>Đúng</t>
-        </is>
-      </c>
-      <c r="E98" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>Học MAD101 là học cái chi rứa?</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>MAD101 là môn Toán rời rạc, cung cấp kiến thức nền tảng về logic, tập hợp, thuật toán, đồ thị, cây và đếm trong tin học.</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>MAD101 là môn Toán rời rạc, cung cấp kiến thức nền tảng về logic, tập hợp, thuật toán, đồ thị, cây và đếm trong tin học.</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>Đúng</t>
-        </is>
-      </c>
-      <c r="E99" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>Ck c0mb0 chii3n s4u pải lm s?</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Sinh viên có thể cân nhắc làm thủ tục đổi Combo chuyên sâu nếu cảm thấy không phù hợp với Combo hiện tại, cụ thể như sau:
- Thời gian đăng ký chuyển combo chuyên sâu: Theo thông báo của phòng Quản lý Đào tạo được đăng trên FAP mục News – Tin tức trước khi học kỳ mới bắt đầu 2 tháng.
- Phí chuyển combo chuyên sâu: 2,300,000 đồng
- Cách thức đăng ký: Đăng nhập =&gt; Thủ tục/Đơn từ =&gt; Send application (Gửi đơn) =&gt; Chọn: Đề nghị đổi Combo chuyên sâu =&gt; Nhập thông tin =&gt; “Send” =&gt; Thanh toán: Quét mã QR để thanh toán lệ phí hoặc hệ thống sẽ trừ trực tiếp từ số dư trên FAP (nếu có).
- Lưu ý: Thời gian giữ chỗ cho SV thanh toán bằng QR code là 10 phút. Nếu thanh toán sau 10 phút thì đơn sẽ bị hủy và tiền SV đã nộp sẽ được cộng vào ví FAP. khi đó sinh viên sẽ phải thao tác đăng ký lại và sử dụng tiền dư trong ví FAP. Sau khi gửi đơn, sinh viên sẽ theo dõi tại mục “View application (Xem đơn)” để nhận phản hồi của bộ phận xử lý. Đối với trường hợp hệ thống có phản hồi về phí thừa môn cần nộp: Sinh viên cần hoàn thành khoản phí này tối đa trong vòng 12 ngày kể từ thời điểm làm đơn. Nếu không hoàn thành đúng hạn, đơn sẽ bị từ chối và phí chuyển ngành cũng sẽ được hoàn về ví FAP. (Phí thừa môn là học phí của các môn học sinh viên đã được học nhưng nằm ngoài khung chương trình hiện tại. Thông thường phí thừa môn có thể xuất hiện khi sinh viên làm thủ tục chuyển ngành, chuyển combo chuyên sâu. Khi đó nếu sinh viên có các học phần đã được học ở khung chương trình cũ nhưng không có trong khung chương trình mới thì sẽ phải nộp phí thừa môn này) Lưu ý: Đối với sinh viên đổi combo sau kỳ 6 chuyên ngành, tùy từng combo cụ thể mà sau khi chuyển sinh viên có thể phải đi OJT lại hoặc không. Các môn học được thay thế trong khung chương trình mới mà sinh viên chưa được học sẽ trở thành môn học chậm kỳ và sinh viên có thể chủ động đăng ký để hoàn thành các môn học này. Sinh viên combo chuyên sâu sẽ được duy trì các loại học bổng, ưu đãi tài năng.</t>
-        </is>
-      </c>
       <c r="C100" t="inlineStr">
         <is>
           <t>Xin lỗi, tôi không tìm thấy thông tin phù hợp với câu hỏi của bạn. Bạn có thể hỏi câu hỏi khác không?</t>
@@ -3226,51 +3212,51 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>DM MAD101 là môn gì thế, nghe ngu vãi?</t>
+          <t>Môn PRJ301 dạy cái chi rứa?</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>MAD101 là môn Toán rời rạc, cung cấp kiến thức nền tảng về logic, tập hợp, thuật toán, đồ thị, cây và đếm trong tin học.</t>
+          <t>Môn PRJ301 giúp sinh viên hiểu các công nghệ cốt lõi của lập trình Java web như Servlet và JSP, phạm vi chia sẻ trạng thái (session, application, request, page). Sinh viên sẽ biết cách phát triển và triển khai các trang web của riêng mình bằng Java, hiểu và có thể áp dụng kiến trúc MVC cho web, áp dụng JPA trong các trang web sử dụng Java, và áp dụng AI trong trang web của mình. Về kỹ năng, sinh viên có thể phát triển ứng dụng web cơ bản áp dụng mẫu thiết kế MVC bằng Servlet/Filter làm bộ điều khiển và tạo một ứng dụng web demo đơn giản sử dụng JPA.</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>MAD101 là môn Toán rời rạc, cung cấp kiến thức nền tảng về logic, tập hợp, thuật toán, đồ thị, cây và đếm trong tin học.</t>
+          <t>Môn PRJ301 là môn Phát triển ứng dụng Java web (Java Web Application Development).</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Đúng</t>
+          <t>Sai</t>
         </is>
       </c>
       <c r="E104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Môn PRJ301 dạy cái chi rứa?</t>
+          <t>DM MAD101 là môn gì thế, nghe ngu vãi?</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Môn PRJ301 giúp sinh viên hiểu các công nghệ cốt lõi của lập trình Java web như Servlet và JSP, phạm vi chia sẻ trạng thái (session, application, request, page). Sinh viên sẽ biết cách phát triển và triển khai các trang web của riêng mình bằng Java, hiểu và có thể áp dụng kiến trúc MVC cho web, áp dụng JPA trong các trang web sử dụng Java, và áp dụng AI trong trang web của mình. Về kỹ năng, sinh viên có thể phát triển ứng dụng web cơ bản áp dụng mẫu thiết kế MVC bằng Servlet/Filter làm bộ điều khiển và tạo một ứng dụng web demo đơn giản sử dụng JPA.</t>
+          <t>MAD101 là môn Toán rời rạc, cung cấp kiến thức nền tảng về logic, tập hợp, thuật toán, đồ thị, cây và đếm trong tin học.</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Môn PRJ301 là môn Phát triển ứng dụng Java web (Java Web Application Development).</t>
+          <t>MAD101 là môn Toán rời rạc, cung cấp kiến thức nền tảng về logic, tập hợp, thuật toán, đồ thị, cây và đếm trong tin học.</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Sai</t>
+          <t>Đúng</t>
         </is>
       </c>
       <c r="E105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -3301,15 +3287,40 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
+          <t>PRF192 pass dễ hơm?</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>PRF192 qua môn cần điểm trung binh ≥ 5, bài thi final exam ≥ 4, đủ các phần.</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>PRF192 qua môn cần điểm trung binh ≥ 5, bài thi final exam ≥ 4, đủ các phần.</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Đúng</t>
+        </is>
+      </c>
+      <c r="E107" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
           <t>PRF192 phải làm gì mới không tạch?</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B108" t="inlineStr">
         <is>
           <t>PRF192 qua môn cần điểm trung binh ≥ 5, bài thi final exam ≥ 4, đủ các phần.</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="C108" t="inlineStr">
         <is>
           <t>Môn học Coursera sẽ không áp dụng hình thức học lại, do đó nếu sinh viên trượt môn Coursera sẽ có 2 tình huống xảy ra như sau:
 - Nếu bạn đã hoàn thành chứng chỉ của môn học, bạn sẽ đăng ký thi thẩm định trong các học kỳ tiếp theo cho đến khi pass môn.
@@ -3317,31 +3328,6 @@
 Cách thức đăng ký thi thẩm định: Truy cập fap.fpt.edu.vn mục Thủ tục/đơn từ =&gt; Gửi đơn =&gt; Chọn: Đăng ký thi thẩm định các môn online. Lệ phí đăng ký: 2,300,000đ.</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>Sai</t>
-        </is>
-      </c>
-      <c r="E107" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>PRF192 pass dễ hơm?</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>PRF192 qua môn cần điểm trung binh ≥ 5, bài thi final exam ≥ 4, đủ các phần.</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>Điều kiện pass môn của từng mông học được Nhà trường ghi rõ trên trang học liệu, để biết thông tin chi tiết sinh viên vui lòng truy cập flm.fpt.du.vn =&gt; chọn View sylllabus =&gt; nhập mã môn muốn tra cứu để xem chi tiết điều kiện pass môn.</t>
-        </is>
-      </c>
       <c r="D108" t="inlineStr">
         <is>
           <t>Sai</t>
@@ -3389,7 +3375,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Để qua môn PRJ301, điểm trung bình tối thiểu là 5. Ngoài ra, các thành phần đánh giá đang diễn ra (Assignment, Practical Exam, Progress Test 1 và 2, Workshop 1 và 2) phải có điểm lớn hơn 0, và điểm thi cuối kỳ phải từ 4 trở lên.</t>
+          <t>Để qua môn JPD316, sinh viên cần thỏa mãn đồng thời hai điều kiện: điểm đánh giá quá trình và điểm thi giữa kỳ phải lớn hơn 0; điểm thi cuối kỳ phải từ 4/10 trở lên; tổng điểm chung cho toàn bộ môn học phải từ 5/10 trở lên; và thi cuối kỳ không có kỹ năng nào bị 0. Điểm trung bình tối thiểu để qua môn là 5.</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3410,12 +3396,12 @@
       <c r="B111" t="inlineStr"/>
       <c r="C111" t="inlineStr">
         <is>
-          <t>49/109</t>
+          <t>43/109</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Tỉ lệ đúng: 44.95%</t>
+          <t>Tỉ lệ đúng: 39.45%</t>
         </is>
       </c>
       <c r="E111" t="inlineStr"/>
